--- a/models.xlsx
+++ b/models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthurde/LSCMR/6MWT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1066AEAE-A930-6944-ACC4-C0A5F98A978F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844321BB-DAF3-5B40-99B9-B42969271DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="660" windowWidth="29360" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="123">
   <si>
     <t>Poh et. al 2006</t>
   </si>
@@ -396,6 +396,15 @@
   </si>
   <si>
     <t>Intercepto</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>ln</t>
+  </si>
+  <si>
+    <t>Sex code female</t>
   </si>
 </sst>
 </file>
@@ -471,49 +480,7 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -522,8 +489,32 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -531,7 +522,25 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -749,2232 +758,2328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BZ22"/>
+  <dimension ref="A1:BZ24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.83203125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="30.33203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="40.5" style="9" customWidth="1"/>
-    <col min="8" max="8" width="43.1640625" style="9" customWidth="1"/>
-    <col min="9" max="10" width="32.1640625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="25.1640625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="22.6640625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="24" style="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.83203125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="24" style="9" customWidth="1"/>
-    <col min="16" max="16" width="29.83203125" style="9" customWidth="1"/>
-    <col min="17" max="18" width="24" style="9" customWidth="1"/>
-    <col min="19" max="20" width="25.33203125" style="9" customWidth="1"/>
-    <col min="21" max="22" width="35.83203125" style="9" customWidth="1"/>
-    <col min="23" max="24" width="32.1640625" style="9" customWidth="1"/>
-    <col min="25" max="32" width="25.5" style="9" customWidth="1"/>
-    <col min="33" max="33" width="24" style="9" customWidth="1"/>
-    <col min="34" max="34" width="26.1640625" style="9" customWidth="1"/>
-    <col min="35" max="35" width="24" style="9" customWidth="1"/>
-    <col min="36" max="37" width="31.5" style="9" customWidth="1"/>
-    <col min="38" max="38" width="32.1640625" style="9" customWidth="1"/>
-    <col min="39" max="39" width="34.1640625" style="9" customWidth="1"/>
-    <col min="40" max="40" width="36.6640625" style="9" customWidth="1"/>
-    <col min="41" max="42" width="50.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20.83203125" style="9" customWidth="1"/>
-    <col min="44" max="44" width="18.33203125" style="9" customWidth="1"/>
-    <col min="45" max="48" width="31.5" style="9" customWidth="1"/>
-    <col min="49" max="49" width="36.33203125" style="9" customWidth="1"/>
-    <col min="50" max="50" width="20.5" style="9" customWidth="1"/>
-    <col min="51" max="51" width="22.6640625" style="9" customWidth="1"/>
-    <col min="52" max="53" width="35.83203125" style="9" customWidth="1"/>
-    <col min="54" max="55" width="28.1640625" style="9" customWidth="1"/>
-    <col min="56" max="59" width="25.83203125" style="9" customWidth="1"/>
-    <col min="60" max="60" width="29.1640625" style="9" customWidth="1"/>
-    <col min="61" max="62" width="25.6640625" style="9" customWidth="1"/>
-    <col min="63" max="63" width="28" style="9" customWidth="1"/>
-    <col min="64" max="64" width="25.83203125" style="9" customWidth="1"/>
-    <col min="65" max="73" width="10.6640625" style="9" customWidth="1"/>
-    <col min="74" max="78" width="11.1640625" style="9" customWidth="1"/>
-    <col min="79" max="16384" width="11.1640625" style="9"/>
+    <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="26.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="34.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="32.1640625" style="6" customWidth="1"/>
+    <col min="11" max="12" width="20.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="24" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24" style="6" customWidth="1"/>
+    <col min="16" max="16" width="29.83203125" style="6" customWidth="1"/>
+    <col min="17" max="18" width="24" style="6" customWidth="1"/>
+    <col min="19" max="20" width="25.33203125" style="6" customWidth="1"/>
+    <col min="21" max="22" width="35.83203125" style="6" customWidth="1"/>
+    <col min="23" max="24" width="32.1640625" style="6" customWidth="1"/>
+    <col min="25" max="32" width="25.5" style="6" customWidth="1"/>
+    <col min="33" max="33" width="24" style="6" customWidth="1"/>
+    <col min="34" max="34" width="24" style="6" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="24" style="6" customWidth="1"/>
+    <col min="36" max="37" width="31.5" style="6" customWidth="1"/>
+    <col min="38" max="38" width="32.1640625" style="6" customWidth="1"/>
+    <col min="39" max="40" width="31.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="50.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="14.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="45" max="48" width="31.5" style="6" customWidth="1"/>
+    <col min="49" max="49" width="36.33203125" style="6" customWidth="1"/>
+    <col min="50" max="50" width="20.5" style="6" customWidth="1"/>
+    <col min="51" max="51" width="22.6640625" style="6" customWidth="1"/>
+    <col min="52" max="53" width="35.83203125" style="6" customWidth="1"/>
+    <col min="54" max="55" width="28.1640625" style="6" customWidth="1"/>
+    <col min="56" max="59" width="25.83203125" style="6" customWidth="1"/>
+    <col min="60" max="60" width="29.1640625" style="6" customWidth="1"/>
+    <col min="61" max="62" width="25.6640625" style="6" customWidth="1"/>
+    <col min="63" max="63" width="25.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="25.83203125" style="6" customWidth="1"/>
+    <col min="65" max="73" width="10.6640625" style="6" customWidth="1"/>
+    <col min="74" max="78" width="11.1640625" style="6" customWidth="1"/>
+    <col min="79" max="16384" width="11.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:78" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="R1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="S1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="U1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="W1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="X1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="Y1" s="12" t="s">
+      <c r="Y1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="Z1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AA1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AB1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AC1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AD1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AE1" s="12" t="s">
+      <c r="AE1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AF1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AG1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AH1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AI1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AK1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AL1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AM1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AN1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AO1" s="12" t="s">
+      <c r="AO1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AP1" s="12" t="s">
+      <c r="AP1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AR1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AS1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="AT1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AU1" s="12" t="s">
+      <c r="AU1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AV1" s="12" t="s">
+      <c r="AV1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AW1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="AX1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="AY1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AZ1" s="12" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BA1" s="12" t="s">
+      <c r="BA1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BB1" s="12" t="s">
+      <c r="BB1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="BC1" s="12" t="s">
+      <c r="BC1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="BD1" s="12" t="s">
+      <c r="BD1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="BE1" s="12" t="s">
+      <c r="BE1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="BF1" s="12" t="s">
+      <c r="BF1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="BG1" s="12" t="s">
+      <c r="BG1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="BH1" s="12" t="s">
+      <c r="BH1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="BI1" s="12" t="s">
+      <c r="BI1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BJ1" s="12" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="BK1" s="12" t="s">
+      <c r="BK1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="BL1" s="12" t="s">
+      <c r="BL1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="BM1" s="12"/>
-      <c r="BN1" s="12"/>
-      <c r="BO1" s="12"/>
-      <c r="BP1" s="15"/>
-      <c r="BQ1" s="15"/>
-      <c r="BR1" s="15"/>
-      <c r="BS1" s="15"/>
-      <c r="BT1" s="15"/>
-      <c r="BU1" s="15"/>
-      <c r="BV1" s="15"/>
-      <c r="BW1" s="15"/>
-      <c r="BX1" s="15"/>
-      <c r="BY1" s="15"/>
-      <c r="BZ1" s="15"/>
+      <c r="BM1" s="1"/>
+      <c r="BN1" s="1"/>
+      <c r="BO1" s="1"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
+      <c r="BZ1" s="4"/>
     </row>
-    <row r="2" spans="1:78" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:78" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="E2" s="3">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="E2" s="7">
         <v>1998</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="7">
         <v>1998</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="7">
         <v>1999</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="7">
         <v>1999</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="7">
         <v>2001</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="7">
         <v>2001</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="7">
         <v>2003</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="7">
         <v>2003</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="7">
         <v>2006</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="7">
         <v>2006</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="7">
         <v>2006</v>
       </c>
-      <c r="P2" s="3">
+      <c r="P2" s="7">
         <v>2006</v>
       </c>
-      <c r="Q2" s="3">
+      <c r="Q2" s="7">
         <v>2006</v>
       </c>
-      <c r="R2" s="3">
+      <c r="R2" s="7">
         <v>2006</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="7">
         <v>2007</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="7">
         <v>2007</v>
       </c>
-      <c r="U2" s="3">
+      <c r="U2" s="7">
         <v>2008</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="7">
         <v>2008</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="7">
         <v>2009</v>
       </c>
-      <c r="X2" s="3">
+      <c r="X2" s="7">
         <v>2009</v>
       </c>
-      <c r="Y2" s="3">
+      <c r="Y2" s="7">
         <v>2009</v>
       </c>
-      <c r="Z2" s="3">
+      <c r="Z2" s="7">
         <v>2009</v>
       </c>
-      <c r="AA2" s="3">
+      <c r="AA2" s="7">
         <v>2009</v>
       </c>
-      <c r="AB2" s="3">
+      <c r="AB2" s="7">
         <v>2009</v>
       </c>
-      <c r="AC2" s="3">
+      <c r="AC2" s="7">
         <v>2009</v>
       </c>
-      <c r="AD2" s="3">
+      <c r="AD2" s="7">
         <v>2009</v>
       </c>
-      <c r="AE2" s="3">
+      <c r="AE2" s="7">
         <v>2009</v>
       </c>
-      <c r="AF2" s="3">
+      <c r="AF2" s="7">
         <v>2009</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AG2" s="7">
         <v>2009</v>
       </c>
-      <c r="AH2" s="3">
+      <c r="AH2" s="7">
         <v>2009</v>
       </c>
-      <c r="AI2" s="3">
+      <c r="AI2" s="7">
         <v>2009</v>
       </c>
-      <c r="AJ2" s="3">
+      <c r="AJ2" s="7">
         <v>2010</v>
       </c>
-      <c r="AK2" s="3">
+      <c r="AK2" s="7">
         <v>2010</v>
       </c>
-      <c r="AL2" s="3">
+      <c r="AL2" s="7">
         <v>2011</v>
       </c>
-      <c r="AM2" s="3">
+      <c r="AM2" s="7">
         <v>2011</v>
       </c>
-      <c r="AN2" s="3">
+      <c r="AN2" s="7">
         <v>2011</v>
       </c>
-      <c r="AO2" s="3">
+      <c r="AO2" s="7">
         <v>2010</v>
       </c>
-      <c r="AP2" s="3">
+      <c r="AP2" s="7">
         <v>2010</v>
       </c>
-      <c r="AQ2" s="3">
+      <c r="AQ2" s="7">
         <v>2011</v>
       </c>
-      <c r="AR2" s="3">
+      <c r="AR2" s="7">
         <v>2011</v>
       </c>
-      <c r="AS2" s="3">
+      <c r="AS2" s="7">
         <v>2013</v>
       </c>
-      <c r="AT2" s="3">
+      <c r="AT2" s="7">
         <v>2013</v>
       </c>
-      <c r="AU2" s="3">
+      <c r="AU2" s="7">
         <v>2013</v>
       </c>
-      <c r="AV2" s="3">
+      <c r="AV2" s="7">
         <v>2013</v>
       </c>
-      <c r="AW2" s="3">
+      <c r="AW2" s="7">
         <v>2013</v>
       </c>
-      <c r="AX2" s="3">
+      <c r="AX2" s="7">
         <v>2013</v>
       </c>
-      <c r="AY2" s="3">
+      <c r="AY2" s="7">
         <v>2014</v>
       </c>
-      <c r="AZ2" s="3">
+      <c r="AZ2" s="7">
         <v>2014</v>
       </c>
-      <c r="BA2" s="3">
+      <c r="BA2" s="7">
         <v>2014</v>
       </c>
-      <c r="BB2" s="3">
+      <c r="BB2" s="7">
         <v>2016</v>
       </c>
-      <c r="BC2" s="3">
+      <c r="BC2" s="7">
         <v>2016</v>
       </c>
-      <c r="BD2" s="3">
+      <c r="BD2" s="7">
         <v>2017</v>
       </c>
-      <c r="BE2" s="3">
+      <c r="BE2" s="7">
         <v>2017</v>
       </c>
-      <c r="BF2" s="3">
+      <c r="BF2" s="7">
         <v>2019</v>
       </c>
-      <c r="BG2" s="3">
+      <c r="BG2" s="7">
         <v>2019</v>
       </c>
-      <c r="BH2" s="3">
+      <c r="BH2" s="7">
         <v>2019</v>
       </c>
-      <c r="BI2" s="3">
+      <c r="BI2" s="7">
         <v>2022</v>
       </c>
-      <c r="BJ2" s="3">
+      <c r="BJ2" s="7">
         <v>2022</v>
       </c>
-      <c r="BK2" s="3">
+      <c r="BK2" s="7">
         <v>2023</v>
       </c>
-      <c r="BL2" s="3">
+      <c r="BL2" s="7">
         <v>2023</v>
       </c>
     </row>
     <row r="3" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6" t="s">
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="Y3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="Z3" s="6" t="s">
+      <c r="Z3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AA3" s="6" t="s">
+      <c r="AA3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AB3" s="6" t="s">
+      <c r="AB3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AC3" s="6" t="s">
+      <c r="AC3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AD3" s="6" t="s">
+      <c r="AD3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AE3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="AF3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AG3" s="6" t="s">
+      <c r="AG3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AH3" s="6" t="s">
+      <c r="AH3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AI3" s="6" t="s">
+      <c r="AI3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AJ3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AK3" s="6" t="s">
+      <c r="AK3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="AL3" s="2" t="s">
+      <c r="AL3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AM3" s="2" t="s">
+      <c r="AM3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AN3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AO3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AP3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AQ3" s="2" t="s">
+      <c r="AQ3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AR3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AS3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AT3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AU3" s="2" t="s">
+      <c r="AU3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AV3" s="2" t="s">
+      <c r="AV3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AW3" s="2" t="s">
+      <c r="AW3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AX3" s="2" t="s">
+      <c r="AX3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="AY3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2" t="s">
+      <c r="AZ3" s="11"/>
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="BC3" s="2" t="s">
+      <c r="BC3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="BD3" s="2" t="s">
+      <c r="BD3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="BE3" s="2" t="s">
+      <c r="BE3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="BF3" s="2" t="s">
+      <c r="BF3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="BG3" s="2" t="s">
+      <c r="BG3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="BH3" s="2" t="s">
+      <c r="BH3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="BI3" s="2" t="s">
+      <c r="BI3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="BJ3" s="2" t="s">
+      <c r="BJ3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="BK3" s="2" t="s">
+      <c r="BK3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="BL3" s="2" t="s">
+      <c r="BL3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="BM3" s="2"/>
-      <c r="BN3" s="2"/>
-      <c r="BO3" s="2"/>
-      <c r="BP3" s="4"/>
-      <c r="BQ3" s="4"/>
-      <c r="BR3" s="4"/>
-      <c r="BS3" s="4"/>
-      <c r="BT3" s="4"/>
-      <c r="BU3" s="4"/>
-      <c r="BV3" s="4"/>
-      <c r="BW3" s="4"/>
-      <c r="BX3" s="4"/>
-      <c r="BY3" s="4"/>
-      <c r="BZ3" s="4"/>
+      <c r="BM3" s="11"/>
+      <c r="BN3" s="11"/>
+      <c r="BO3" s="11"/>
+      <c r="BP3" s="12"/>
+      <c r="BQ3" s="12"/>
+      <c r="BR3" s="12"/>
+      <c r="BS3" s="12"/>
+      <c r="BT3" s="12"/>
+      <c r="BU3" s="12"/>
+      <c r="BV3" s="12"/>
+      <c r="BW3" s="12"/>
+      <c r="BX3" s="12"/>
+      <c r="BY3" s="12"/>
+      <c r="BZ3" s="12"/>
     </row>
-    <row r="4" spans="1:78" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:78" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="V4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="7"/>
-      <c r="AK4" s="7"/>
-      <c r="AL4" s="7"/>
-      <c r="AM4" s="7"/>
-      <c r="AN4" s="7"/>
-      <c r="AO4" s="7"/>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="7"/>
-      <c r="AR4" s="7"/>
-      <c r="AS4" s="7"/>
-      <c r="AT4" s="7"/>
-      <c r="AU4" s="7"/>
-      <c r="AV4" s="7"/>
-      <c r="AW4" s="7" t="s">
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AX4" s="7"/>
-      <c r="AY4" s="7"/>
-      <c r="AZ4" s="7" t="s">
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="BA4" s="7" t="s">
+      <c r="BA4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="BB4" s="7"/>
-      <c r="BC4" s="7"/>
-      <c r="BD4" s="7"/>
-      <c r="BE4" s="7"/>
-      <c r="BF4" s="7"/>
-      <c r="BG4" s="7"/>
-      <c r="BH4" s="7"/>
-      <c r="BI4" s="7"/>
-      <c r="BJ4" s="7"/>
-      <c r="BK4" s="7"/>
-      <c r="BL4" s="7"/>
-      <c r="BM4" s="7"/>
-      <c r="BN4" s="7"/>
-      <c r="BO4" s="7"/>
-      <c r="BP4" s="14"/>
-      <c r="BQ4" s="14"/>
-      <c r="BR4" s="14"/>
-      <c r="BS4" s="14"/>
-      <c r="BT4" s="14"/>
-      <c r="BU4" s="14"/>
-      <c r="BV4" s="14"/>
-      <c r="BW4" s="14"/>
-      <c r="BX4" s="14"/>
-      <c r="BY4" s="14"/>
-      <c r="BZ4" s="14"/>
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="15"/>
+      <c r="BF4" s="15"/>
+      <c r="BG4" s="15"/>
+      <c r="BH4" s="15"/>
+      <c r="BI4" s="15"/>
+      <c r="BJ4" s="15"/>
+      <c r="BK4" s="15"/>
+      <c r="BL4" s="15"/>
+      <c r="BM4" s="15"/>
+      <c r="BN4" s="15"/>
+      <c r="BO4" s="15"/>
+      <c r="BP4" s="16"/>
+      <c r="BQ4" s="16"/>
+      <c r="BR4" s="16"/>
+      <c r="BS4" s="16"/>
+      <c r="BT4" s="16"/>
+      <c r="BU4" s="16"/>
+      <c r="BV4" s="16"/>
+      <c r="BW4" s="16"/>
+      <c r="BX4" s="16"/>
+      <c r="BY4" s="16"/>
+      <c r="BZ4" s="16"/>
     </row>
-    <row r="5" spans="1:78" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:78" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="8">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="18">
         <v>117</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="18">
         <v>173</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="18">
         <v>29</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="18">
         <v>22</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="18">
         <v>41</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="18">
         <v>38</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="18">
         <v>437</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="18">
         <v>315</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="18">
         <v>70</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="18">
         <v>37</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="18">
         <v>33</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="18">
         <v>35</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="18">
         <v>54</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="18">
         <v>48</v>
       </c>
-      <c r="S5" s="8">
+      <c r="S5" s="18">
         <v>805</v>
       </c>
-      <c r="T5" s="8">
+      <c r="T5" s="18">
         <v>640</v>
       </c>
-      <c r="U5" s="8">
+      <c r="U5" s="18">
         <v>75</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="18">
         <v>80</v>
       </c>
-      <c r="W5" s="8">
+      <c r="W5" s="18">
         <v>61</v>
       </c>
-      <c r="X5" s="8">
+      <c r="X5" s="18">
         <v>73</v>
       </c>
-      <c r="Y5" s="8">
+      <c r="Y5" s="18">
         <v>61</v>
       </c>
-      <c r="Z5" s="8">
+      <c r="Z5" s="18">
         <v>48</v>
       </c>
-      <c r="AA5" s="8">
+      <c r="AA5" s="18">
         <v>61</v>
       </c>
-      <c r="AB5" s="8">
+      <c r="AB5" s="18">
         <v>48</v>
       </c>
-      <c r="AC5" s="8">
+      <c r="AC5" s="18">
         <v>48</v>
       </c>
-      <c r="AD5" s="8">
+      <c r="AD5" s="18">
         <v>61</v>
       </c>
-      <c r="AE5" s="8">
+      <c r="AE5" s="18">
         <v>61</v>
       </c>
-      <c r="AF5" s="8">
+      <c r="AF5" s="18">
         <v>48</v>
       </c>
-      <c r="AG5" s="8">
+      <c r="AG5" s="18">
         <v>298</v>
       </c>
-      <c r="AH5" s="8">
+      <c r="AH5" s="18">
         <v>125</v>
       </c>
-      <c r="AI5" s="8">
+      <c r="AI5" s="18">
         <v>104</v>
       </c>
-      <c r="AJ5" s="8">
+      <c r="AJ5" s="18">
         <v>98</v>
       </c>
-      <c r="AK5" s="8">
+      <c r="AK5" s="18">
         <v>77</v>
       </c>
-      <c r="AL5" s="8">
+      <c r="AL5" s="18">
         <v>132</v>
       </c>
-      <c r="AM5" s="8">
+      <c r="AM5" s="18">
         <v>44</v>
       </c>
-      <c r="AN5" s="8">
+      <c r="AN5" s="18">
         <v>54</v>
       </c>
-      <c r="AO5" s="8">
+      <c r="AO5" s="18">
         <v>206</v>
       </c>
-      <c r="AP5" s="8">
+      <c r="AP5" s="18">
         <v>238</v>
       </c>
-      <c r="AQ5" s="8">
+      <c r="AQ5" s="18">
         <v>40</v>
       </c>
-      <c r="AR5" s="8">
+      <c r="AR5" s="18">
         <v>37</v>
       </c>
-      <c r="AS5" s="8">
+      <c r="AS5" s="18">
         <v>296</v>
       </c>
-      <c r="AT5" s="8">
+      <c r="AT5" s="18">
         <v>321</v>
       </c>
-      <c r="AU5" s="8">
+      <c r="AU5" s="18">
         <v>296</v>
       </c>
-      <c r="AV5" s="8">
+      <c r="AV5" s="18">
         <v>321</v>
       </c>
-      <c r="AW5" s="8">
+      <c r="AW5" s="18">
         <v>85</v>
       </c>
-      <c r="AX5" s="8">
+      <c r="AX5" s="18">
         <v>211</v>
       </c>
-      <c r="AY5" s="8">
+      <c r="AY5" s="18">
         <v>259</v>
       </c>
-      <c r="AZ5" s="8">
+      <c r="AZ5" s="18">
         <v>58</v>
       </c>
-      <c r="BA5" s="8">
+      <c r="BA5" s="18">
         <v>65</v>
       </c>
-      <c r="BB5" s="8">
+      <c r="BB5" s="18">
         <v>89</v>
       </c>
-      <c r="BC5" s="8">
+      <c r="BC5" s="18">
         <v>80</v>
       </c>
-      <c r="BD5" s="8">
+      <c r="BD5" s="18">
         <v>319</v>
       </c>
-      <c r="BE5" s="8">
+      <c r="BE5" s="18">
         <v>324</v>
       </c>
-      <c r="BF5" s="8">
+      <c r="BF5" s="18">
         <v>89</v>
       </c>
-      <c r="BG5" s="8">
+      <c r="BG5" s="18">
         <v>69</v>
       </c>
-      <c r="BH5" s="8">
+      <c r="BH5" s="18">
         <v>215</v>
       </c>
-      <c r="BI5" s="8">
+      <c r="BI5" s="18">
         <v>82</v>
       </c>
-      <c r="BJ5" s="8">
+      <c r="BJ5" s="18">
         <v>90</v>
       </c>
-      <c r="BK5" s="8">
+      <c r="BK5" s="18">
         <v>163</v>
       </c>
-      <c r="BL5" s="8">
+      <c r="BL5" s="18">
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:78" s="8" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:78" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="8" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="M6" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="P6" s="8" t="s">
+      <c r="P6" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="Q6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="U6" s="8" t="s">
+      <c r="U6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="V6" s="8" t="s">
+      <c r="V6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="W6" s="8" t="s">
+      <c r="W6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="X6" s="8" t="s">
+      <c r="X6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="Y6" s="8" t="s">
+      <c r="Y6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="Z6" s="8" t="s">
+      <c r="Z6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="AA6" s="8" t="s">
+      <c r="AA6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AB6" s="8" t="s">
+      <c r="AB6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="AC6" s="8" t="s">
+      <c r="AC6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="AD6" s="8" t="s">
+      <c r="AD6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AE6" s="8" t="s">
+      <c r="AE6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AF6" s="8" t="s">
+      <c r="AF6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="AG6" s="8" t="s">
+      <c r="AG6" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="AH6" s="8" t="s">
+      <c r="AH6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AI6" s="8" t="s">
+      <c r="AI6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="AJ6" s="8" t="s">
+      <c r="AJ6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AK6" s="8" t="s">
+      <c r="AK6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="AL6" s="8" t="s">
+      <c r="AL6" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="AM6" s="8" t="s">
+      <c r="AM6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="AN6" s="8" t="s">
+      <c r="AN6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AO6" s="8" t="s">
+      <c r="AO6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AP6" s="8" t="s">
+      <c r="AP6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="AQ6" s="8" t="s">
+      <c r="AQ6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AR6" s="8" t="s">
+      <c r="AR6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="AS6" s="8" t="s">
+      <c r="AS6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="AT6" s="8" t="s">
+      <c r="AT6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AU6" s="8" t="s">
+      <c r="AU6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="AV6" s="8" t="s">
+      <c r="AV6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AW6" s="8" t="s">
+      <c r="AW6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="AX6" s="8" t="s">
+      <c r="AX6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="AY6" s="8" t="s">
+      <c r="AY6" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="AZ6" s="8" t="s">
+      <c r="AZ6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="BA6" s="8" t="s">
+      <c r="BA6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="BB6" s="8" t="s">
+      <c r="BB6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="BC6" s="8" t="s">
+      <c r="BC6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="BD6" s="8" t="s">
+      <c r="BD6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="BE6" s="8" t="s">
+      <c r="BE6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="BF6" s="8" t="s">
+      <c r="BF6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="BG6" s="8" t="s">
+      <c r="BG6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="BH6" s="8" t="s">
+      <c r="BH6" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="BI6" s="21" t="s">
+      <c r="BI6" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="BJ6" s="8" t="s">
+      <c r="BJ6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="BK6" s="8" t="s">
+      <c r="BK6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="BL6" s="21" t="s">
+      <c r="BL6" s="19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:78" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:78" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1</v>
+      </c>
+      <c r="N7" s="18">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="18">
+        <v>1</v>
+      </c>
+      <c r="V7" s="18">
+        <v>1</v>
+      </c>
+      <c r="W7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="18">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="18">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="18">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="18">
+        <v>1</v>
+      </c>
+      <c r="BF7" s="18">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="18">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="18">
+        <v>0</v>
+      </c>
+      <c r="BI7" s="19">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="18">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="19"/>
+    </row>
+    <row r="8" spans="1:78" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="7" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M8" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N8" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O8" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P8" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q8" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="R7" s="7" t="s">
+      <c r="R8" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="S8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="T8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="U7" s="7" t="s">
+      <c r="U8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="V7" s="7" t="s">
+      <c r="V8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="W7" s="7" t="s">
+      <c r="W8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="X7" s="7" t="s">
+      <c r="X8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="Y7" s="7" t="s">
+      <c r="Y8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="Z7" s="7" t="s">
+      <c r="Z8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AA7" s="7" t="s">
+      <c r="AA8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AB7" s="7" t="s">
+      <c r="AB8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AC7" s="7" t="s">
+      <c r="AC8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AD7" s="7" t="s">
+      <c r="AD8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AE7" s="7" t="s">
+      <c r="AE8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AF7" s="7" t="s">
+      <c r="AF8" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AG7" s="7" t="s">
+      <c r="AG8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AH7" s="7" t="s">
+      <c r="AH8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AI7" s="7" t="s">
+      <c r="AI8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AJ7" s="7" t="s">
+      <c r="AJ8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AK7" s="7" t="s">
+      <c r="AK8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AL7" s="7" t="s">
+      <c r="AL8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AM7" s="7" t="s">
+      <c r="AM8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AN7" s="7" t="s">
+      <c r="AN8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AO7" s="7" t="s">
+      <c r="AO8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AP7" s="7" t="s">
+      <c r="AP8" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="AQ7" s="7" t="s">
+      <c r="AQ8" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AR7" s="7" t="s">
+      <c r="AR8" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AS7" s="7" t="s">
+      <c r="AS8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AT7" s="7" t="s">
+      <c r="AT8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AU7" s="7" t="s">
+      <c r="AU8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AV7" s="7" t="s">
+      <c r="AV8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AW7" s="7" t="s">
+      <c r="AW8" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AX7" s="7" t="s">
+      <c r="AX8" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="AY7" s="7" t="s">
+      <c r="AY8" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AZ7" s="7" t="s">
+      <c r="AZ8" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="BA7" s="7" t="s">
+      <c r="BA8" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="BB7" s="7" t="s">
+      <c r="BB8" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="BC7" s="7" t="s">
+      <c r="BC8" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="BD7" s="7" t="s">
+      <c r="BD8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="BE7" s="7" t="s">
+      <c r="BE8" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="BF7" s="7" t="s">
+      <c r="BF8" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="BG7" s="7" t="s">
+      <c r="BG8" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="BH7" s="7" t="s">
+      <c r="BH8" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="BI7" s="7" t="s">
+      <c r="BI8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="BJ7" s="7" t="s">
+      <c r="BJ8" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="BK7" s="7" t="s">
+      <c r="BK8" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="BL7" s="7" t="s">
+      <c r="BL8" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="BM7" s="7"/>
-      <c r="BN7" s="7"/>
-      <c r="BO7" s="7"/>
-      <c r="BP7" s="14"/>
-      <c r="BQ7" s="14"/>
-      <c r="BR7" s="14"/>
-      <c r="BS7" s="14"/>
-      <c r="BT7" s="14"/>
-      <c r="BU7" s="14"/>
-      <c r="BV7" s="14"/>
-      <c r="BW7" s="14"/>
-      <c r="BX7" s="14"/>
-      <c r="BY7" s="14"/>
-      <c r="BZ7" s="14"/>
+      <c r="BM8" s="15"/>
+      <c r="BN8" s="15"/>
+      <c r="BO8" s="15"/>
+      <c r="BP8" s="16"/>
+      <c r="BQ8" s="16"/>
+      <c r="BR8" s="16"/>
+      <c r="BS8" s="16"/>
+      <c r="BT8" s="16"/>
+      <c r="BU8" s="16"/>
+      <c r="BV8" s="16"/>
+      <c r="BW8" s="16"/>
+      <c r="BX8" s="16"/>
+      <c r="BY8" s="16"/>
+      <c r="BZ8" s="16"/>
     </row>
-    <row r="8" spans="1:78" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:78" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4">
+      <c r="C9" s="6"/>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12">
         <v>-309</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F9" s="12">
         <v>667</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G9" s="12">
         <v>218</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H9" s="12">
         <v>218</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I9" s="12">
         <v>868.8</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J9" s="12">
         <v>868.8</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K9" s="12">
         <v>493</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L9" s="12">
         <v>410</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M9" s="12">
         <v>64.69</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N9" s="12">
         <v>216.9</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O9" s="12">
         <v>216.9</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P9" s="12">
         <v>-473.27</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q9" s="12">
         <v>518.85299999999995</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R9" s="12">
         <v>518.85299999999995</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S9" s="12">
         <v>554.16</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T9" s="12">
         <v>526.79</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U9" s="12">
         <v>299.8</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V9" s="12">
         <v>299.8</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W9" s="12">
         <v>622.46100000000001</v>
       </c>
-      <c r="X8" s="4">
+      <c r="X9" s="12">
         <v>622.46100000000001</v>
       </c>
-      <c r="Y8" s="4">
+      <c r="Y9" s="12">
         <v>594</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="Z9" s="12">
         <v>849</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AA9" s="12">
         <v>602</v>
       </c>
-      <c r="AB8" s="4">
+      <c r="AB9" s="12">
         <v>1005</v>
       </c>
-      <c r="AC8" s="4">
+      <c r="AC9" s="12">
         <v>748</v>
       </c>
-      <c r="AD8" s="4">
+      <c r="AD9" s="12">
         <v>541</v>
       </c>
-      <c r="AE8" s="4">
+      <c r="AE9" s="12">
         <v>525</v>
       </c>
-      <c r="AF8" s="4">
+      <c r="AF9" s="12">
         <v>867</v>
       </c>
-      <c r="AG8" s="4">
+      <c r="AG9" s="12">
         <v>-28.5</v>
       </c>
-      <c r="AH8" s="4">
+      <c r="AH9" s="12">
         <v>720.5</v>
       </c>
-      <c r="AI8" s="4">
+      <c r="AI9" s="12">
         <v>720.5</v>
       </c>
-      <c r="AJ8" s="4">
+      <c r="AJ9" s="12">
         <v>457</v>
       </c>
-      <c r="AK8" s="4">
+      <c r="AK9" s="12">
         <v>530</v>
       </c>
-      <c r="AL8" s="4">
+      <c r="AL9" s="12">
         <v>511</v>
       </c>
-      <c r="AM8" s="4">
+      <c r="AM9" s="12">
         <v>299.29599999999999</v>
       </c>
-      <c r="AN8" s="4">
+      <c r="AN9" s="12">
         <v>299.29599999999999</v>
       </c>
-      <c r="AO8" s="4">
+      <c r="AO9" s="12">
         <v>361</v>
       </c>
-      <c r="AP8" s="4">
+      <c r="AP9" s="12">
         <v>361</v>
       </c>
-      <c r="AQ8" s="4">
+      <c r="AQ9" s="12">
         <v>970.7</v>
       </c>
-      <c r="AR8" s="4">
+      <c r="AR9" s="12">
         <v>970.7</v>
       </c>
-      <c r="AS8" s="4">
+      <c r="AS9" s="12">
         <v>890.46</v>
       </c>
-      <c r="AT8" s="4">
+      <c r="AT9" s="12">
         <v>890.46</v>
       </c>
-      <c r="AU8" s="4">
+      <c r="AU9" s="12">
         <v>356.65800000000002</v>
       </c>
-      <c r="AV8" s="4">
+      <c r="AV9" s="12">
         <v>356.65800000000002</v>
       </c>
-      <c r="AW8" s="4">
+      <c r="AW9" s="12">
         <v>164.08</v>
       </c>
-      <c r="AX8" s="4">
+      <c r="AX9" s="12">
         <v>164.08</v>
       </c>
-      <c r="AY8" s="4">
+      <c r="AY9" s="12">
         <v>105.7</v>
       </c>
-      <c r="AZ8" s="4">
+      <c r="AZ9" s="12">
         <v>586.25400000000002</v>
       </c>
-      <c r="BA8" s="4">
+      <c r="BA9" s="12">
         <v>586.25400000000002</v>
       </c>
-      <c r="BB8" s="4">
+      <c r="BB9" s="12">
         <v>553.28899999999999</v>
       </c>
-      <c r="BC8" s="4">
+      <c r="BC9" s="12">
         <v>553</v>
       </c>
-      <c r="BD8" s="4">
+      <c r="BD9" s="12">
         <v>233.994</v>
       </c>
-      <c r="BE8" s="4">
+      <c r="BE9" s="12">
         <v>141.327</v>
       </c>
-      <c r="BF8" s="4">
+      <c r="BF9" s="12">
         <v>356.65800000000002</v>
       </c>
-      <c r="BG8" s="4">
+      <c r="BG9" s="12">
         <v>356.65800000000002</v>
       </c>
-      <c r="BH8" s="4">
+      <c r="BH9" s="12">
         <v>778.1</v>
       </c>
-      <c r="BI8" s="4">
+      <c r="BI9" s="12">
         <v>-185.34100000000001</v>
       </c>
-      <c r="BJ8" s="4">
+      <c r="BJ9" s="12">
         <v>-185.43100000000001</v>
       </c>
-      <c r="BK8" s="4">
+      <c r="BK9" s="12">
         <v>498.06</v>
       </c>
-      <c r="BL8" s="4">
+      <c r="BL9" s="12">
         <v>489.22</v>
       </c>
     </row>
-    <row r="9" spans="1:78" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:78" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C10" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U10" s="12">
         <v>342.6</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V10" s="12">
         <v>342.6</v>
       </c>
-      <c r="AM9" s="4">
+      <c r="AM10" s="12">
         <v>361.73099999999999</v>
       </c>
-      <c r="AN9" s="4">
+      <c r="AN10" s="12">
         <v>361.73099999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:78" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:78" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E11" s="12">
         <v>7.57</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F11" s="12">
         <v>2.11</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G11" s="12">
         <v>5.14</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H11" s="12">
         <v>5.14</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K11" s="12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L11" s="12">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M11" s="12">
         <v>3.12</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N11" s="12">
         <v>4.12</v>
       </c>
-      <c r="O10" s="4">
+      <c r="O11" s="12">
         <v>4.12</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P11" s="12">
         <v>6.94</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q11" s="12">
         <v>1.25</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R11" s="12">
         <v>1.25</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S11" s="12">
         <v>1.23</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T11" s="12">
         <v>0.62</v>
       </c>
-      <c r="Y10" s="4">
+      <c r="Y11" s="12">
         <v>1.0900000000000001</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="Z11" s="12">
         <v>0.22</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AA11" s="12">
         <v>2.0499999999999998</v>
       </c>
-      <c r="AB10" s="4">
+      <c r="AB11" s="12">
         <v>0.89</v>
       </c>
-      <c r="AC10" s="4">
+      <c r="AC11" s="12">
         <v>0.64</v>
       </c>
-      <c r="AD10" s="4">
+      <c r="AD11" s="12">
         <v>1.8</v>
       </c>
-      <c r="AE10" s="4">
+      <c r="AE11" s="12">
         <v>2.71</v>
       </c>
-      <c r="AF10" s="4">
+      <c r="AF11" s="12">
         <v>1.03</v>
       </c>
-      <c r="AG10" s="4">
+      <c r="AG11" s="12">
         <v>2.81</v>
       </c>
-      <c r="AH10" s="4">
+      <c r="AH11" s="12">
         <v>2.72</v>
       </c>
-      <c r="AI10" s="4">
+      <c r="AI11" s="12">
         <v>2.72</v>
       </c>
-      <c r="AJ10" s="4">
+      <c r="AJ11" s="12">
         <v>2.61</v>
       </c>
-      <c r="AK10" s="4">
+      <c r="AK11" s="12">
         <v>2.36</v>
       </c>
-      <c r="AL10" s="4">
+      <c r="AL11" s="12">
         <v>6.6E-3</v>
       </c>
-      <c r="AO10" s="4">
+      <c r="AO11" s="12">
         <v>2</v>
       </c>
-      <c r="AP10" s="4">
+      <c r="AP11" s="12">
         <v>2</v>
       </c>
-      <c r="AU10" s="4">
+      <c r="AU11" s="12">
         <v>1.704</v>
       </c>
-      <c r="AV10" s="4">
+      <c r="AV11" s="12">
         <v>1.704</v>
       </c>
-      <c r="AW10" s="4">
+      <c r="AW11" s="12">
         <v>1.95</v>
       </c>
-      <c r="AX10" s="4">
+      <c r="AX11" s="12">
         <v>1.95</v>
       </c>
-      <c r="AY10" s="4">
+      <c r="AY11" s="12">
         <v>2.99</v>
       </c>
-      <c r="AZ10" s="4">
+      <c r="AZ11" s="12">
         <v>-0.26500000000000001</v>
       </c>
-      <c r="BA10" s="4">
+      <c r="BA11" s="12">
         <v>-0.26500000000000001</v>
       </c>
-      <c r="BD10" s="4">
+      <c r="BD11" s="12">
         <v>2.6320000000000001</v>
       </c>
-      <c r="BE10" s="4">
+      <c r="BE11" s="12">
         <v>3.0379999999999998</v>
       </c>
-      <c r="BI10" s="4">
+      <c r="BI11" s="12">
         <v>288.28199999999998</v>
       </c>
-      <c r="BJ10" s="4">
+      <c r="BJ11" s="12">
         <v>288.28199999999998</v>
       </c>
-      <c r="BK10" s="4">
+      <c r="BK11" s="12">
         <v>2.64</v>
       </c>
-      <c r="BL10" s="4">
+      <c r="BL11" s="12">
         <v>3.19</v>
       </c>
     </row>
-    <row r="11" spans="1:78" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+    <row r="12" spans="1:78" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B12" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="7">
         <v>2</v>
       </c>
-      <c r="AS11" s="4">
+      <c r="AS12" s="12">
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="AT11" s="4">
+      <c r="AT12" s="12">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:78" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:78" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C13" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="7">
         <v>1</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E13" s="12">
         <v>-5.0199999999999996</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F13" s="12">
         <v>-5.78</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G13" s="12">
         <v>-5.32</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H13" s="12">
         <v>-5.32</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I13" s="12">
         <v>-2.99</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J13" s="12">
         <v>-2.99</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K13" s="12">
         <v>-5.3</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L13" s="12">
         <v>-5.3</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N13" s="12">
         <v>-1.75</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O13" s="12">
         <v>-1.75</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P13" s="12">
         <v>-4.49</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q13" s="12">
         <v>-2.8159999999999998</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R13" s="12">
         <v>-2.8159999999999998</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U13" s="12">
         <v>-4.34</v>
       </c>
-      <c r="V12" s="4">
+      <c r="V13" s="12">
         <v>-4.34</v>
       </c>
-      <c r="W12" s="4">
+      <c r="W13" s="12">
         <v>-1.8460000000000001</v>
       </c>
-      <c r="X12" s="4">
+      <c r="X13" s="12">
         <v>-1.8460000000000001</v>
       </c>
-      <c r="Y12" s="4">
+      <c r="Y13" s="12">
         <v>-3.95</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="Z13" s="12">
         <v>-6.15</v>
       </c>
-      <c r="AA12" s="4">
+      <c r="AA13" s="12">
         <v>-2.97</v>
       </c>
-      <c r="AB12" s="4">
+      <c r="AB13" s="12">
         <v>-5.68</v>
       </c>
-      <c r="AC12" s="4">
+      <c r="AC13" s="12">
         <v>-6.32</v>
       </c>
-      <c r="AD12" s="4">
+      <c r="AD13" s="12">
         <v>-3.81</v>
       </c>
-      <c r="AE12" s="4">
+      <c r="AE13" s="12">
         <v>-2.86</v>
       </c>
-      <c r="AF12" s="4">
+      <c r="AF13" s="12">
         <v>-5.71</v>
       </c>
-      <c r="AG12" s="4">
+      <c r="AG13" s="12">
         <v>0.79</v>
       </c>
-      <c r="AH12" s="4">
+      <c r="AH13" s="12">
         <v>-5.14</v>
       </c>
-      <c r="AI12" s="4">
+      <c r="AI13" s="12">
         <v>-5.14</v>
       </c>
-      <c r="AJ12" s="4">
+      <c r="AJ13" s="12">
         <v>-3.46</v>
       </c>
-      <c r="AK12" s="4">
+      <c r="AK13" s="12">
         <v>-3.31</v>
       </c>
-      <c r="AL12" s="4">
+      <c r="AL13" s="12">
         <v>-0.03</v>
       </c>
-      <c r="AM12" s="4">
+      <c r="AM13" s="12">
         <v>-2.7280000000000002</v>
       </c>
-      <c r="AN12" s="4">
+      <c r="AN13" s="12">
         <v>-2.7280000000000002</v>
       </c>
-      <c r="AO12" s="4">
+      <c r="AO13" s="12">
         <v>-4</v>
       </c>
-      <c r="AP12" s="4">
+      <c r="AP13" s="12">
         <v>-4</v>
       </c>
-      <c r="AQ12" s="4">
+      <c r="AQ13" s="12">
         <v>-5.5</v>
       </c>
-      <c r="AR12" s="4">
+      <c r="AR13" s="12">
         <v>-5.5</v>
       </c>
-      <c r="AS12" s="4">
+      <c r="AS13" s="12">
         <v>-6.11</v>
       </c>
-      <c r="AT12" s="4">
+      <c r="AT13" s="12">
         <v>-6.11</v>
       </c>
-      <c r="AU12" s="4">
+      <c r="AU13" s="12">
         <v>-2.3029999999999999</v>
       </c>
-      <c r="AV12" s="4">
+      <c r="AV13" s="12">
         <v>-2.3029999999999999</v>
       </c>
-      <c r="AW12" s="4">
+      <c r="AW13" s="12">
         <v>-1.9</v>
       </c>
-      <c r="AX12" s="4">
+      <c r="AX13" s="12">
         <v>-1.9</v>
       </c>
-      <c r="AZ12" s="4">
+      <c r="AZ13" s="12">
         <v>0.11700000000000001</v>
       </c>
-      <c r="BA12" s="4">
+      <c r="BA13" s="12">
         <v>0.11700000000000001</v>
       </c>
-      <c r="BB12" s="4">
+      <c r="BB13" s="12">
         <v>-2.11</v>
       </c>
-      <c r="BC12" s="4">
+      <c r="BC13" s="12">
         <v>-2.11</v>
       </c>
-      <c r="BD12" s="4">
+      <c r="BD13" s="12">
         <v>-1.8149999999999999</v>
       </c>
-      <c r="BE12" s="4">
+      <c r="BE13" s="12">
         <v>-1.0389999999999999</v>
       </c>
-      <c r="BF12" s="4">
+      <c r="BF13" s="12">
         <v>-2.3029999999999999</v>
       </c>
-      <c r="BG12" s="4">
+      <c r="BG13" s="12">
         <v>-2.3029999999999999</v>
       </c>
-      <c r="BH12" s="4">
+      <c r="BI13" s="12">
+        <v>-1.343</v>
+      </c>
+      <c r="BJ13" s="12">
+        <v>-1.343</v>
+      </c>
+      <c r="BK13" s="12">
+        <v>-4.8</v>
+      </c>
+      <c r="BL13" s="12">
+        <v>-4.33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:78" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="BH14" s="12">
         <v>-42.5</v>
       </c>
-      <c r="BI12" s="4">
-        <v>-1.343</v>
-      </c>
-      <c r="BJ12" s="4">
-        <v>-1.343</v>
-      </c>
-      <c r="BK12" s="4">
-        <v>-4.8</v>
-      </c>
-      <c r="BL12" s="4">
-        <v>-4.33</v>
-      </c>
     </row>
-    <row r="13" spans="1:78" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+    <row r="15" spans="1:78" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B15" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C15" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D15" s="7">
         <v>1</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E15" s="12">
         <v>-1.76</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F15" s="12">
         <v>-2.29</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G15" s="12">
         <v>-1.8</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H15" s="12">
         <v>-1.8</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K15" s="12">
         <v>-0.93</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L15" s="12">
         <v>-0.93</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N15" s="12">
         <v>-1.1499999999999999</v>
       </c>
-      <c r="O13" s="4">
+      <c r="O15" s="12">
         <v>-1.1499999999999999</v>
       </c>
-      <c r="P13" s="4">
+      <c r="P15" s="12">
         <v>-3.51</v>
       </c>
-      <c r="U13" s="4">
+      <c r="U15" s="12">
         <v>-1.46</v>
       </c>
-      <c r="V13" s="4">
+      <c r="V15" s="12">
         <v>-1.46</v>
       </c>
-      <c r="AH13" s="4">
+      <c r="AH15" s="12">
         <v>-2.23</v>
       </c>
-      <c r="AI13" s="4">
+      <c r="AI15" s="12">
         <v>-2.23</v>
       </c>
-      <c r="AJ13" s="4">
+      <c r="AJ15" s="12">
         <v>-1.57</v>
       </c>
-      <c r="AK13" s="4">
+      <c r="AK15" s="12">
         <v>-1.49</v>
       </c>
-      <c r="AM13" s="4">
+      <c r="AM15" s="12">
         <v>-2.16</v>
       </c>
-      <c r="AN13" s="4">
+      <c r="AN15" s="12">
         <v>-2.16</v>
       </c>
-      <c r="AO13" s="4">
+      <c r="AO15" s="12">
         <v>-1.5</v>
       </c>
-      <c r="AP13" s="4">
+      <c r="AP15" s="12">
         <v>-1.5</v>
       </c>
-      <c r="AZ13" s="4">
+      <c r="AZ15" s="12">
         <v>0.622</v>
       </c>
-      <c r="BA13" s="4">
+      <c r="BA15" s="12">
         <v>0.622</v>
       </c>
-      <c r="BI13" s="4">
+      <c r="BI15" s="12">
         <v>-1.6140000000000001</v>
       </c>
-      <c r="BJ13" s="4">
+      <c r="BJ15" s="12">
         <v>-1.6140000000000001</v>
       </c>
-      <c r="BK13" s="4">
+      <c r="BK15" s="12">
         <v>-1.24</v>
       </c>
-      <c r="BL13" s="4">
+      <c r="BL15" s="12">
         <v>-2.1800000000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:78" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="16" spans="1:78" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B16" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3">
+      <c r="C16" s="11"/>
+      <c r="D16" s="7">
         <v>1</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G16" s="12">
         <v>51.31</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J16" s="12">
         <v>-74.7</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N16" s="12">
         <v>-34.04</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q16" s="12">
         <v>-39.07</v>
       </c>
-      <c r="V14" s="4">
+      <c r="V16" s="12">
         <v>62.5</v>
       </c>
-      <c r="W14" s="4">
+      <c r="W16" s="12">
         <v>61.503</v>
       </c>
-      <c r="AH14" s="4">
+      <c r="AH16" s="12">
         <v>-160.27000000000001</v>
       </c>
-      <c r="AM14" s="4">
+      <c r="AM16" s="12">
         <v>56.386000000000003</v>
       </c>
-      <c r="AO14" s="4">
+      <c r="AO16" s="12">
         <v>-30</v>
       </c>
-      <c r="AR14" s="4">
+      <c r="AR16" s="12">
         <v>56.3</v>
       </c>
-      <c r="AT14" s="4">
+      <c r="AT16" s="12">
         <v>48.87</v>
       </c>
-      <c r="AU14" s="4">
+      <c r="AU16" s="12">
         <v>36.648000000000003</v>
       </c>
-      <c r="AX14" s="4">
+      <c r="AX16" s="12">
         <v>78.06</v>
       </c>
-      <c r="BA14" s="4">
+      <c r="BA16" s="12">
         <v>-63.343000000000004</v>
       </c>
-      <c r="BC14" s="4">
+      <c r="BC16" s="12">
         <v>45.323</v>
       </c>
-      <c r="BG14" s="4">
+      <c r="BG16" s="12">
         <v>36.648000000000003</v>
       </c>
-      <c r="BH14" s="4">
+      <c r="BH16" s="12">
         <v>46.2</v>
       </c>
-      <c r="BI14" s="4">
+      <c r="BI16" s="12">
         <v>27.463000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:78" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+    <row r="17" spans="1:62" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B17" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C17" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D17" s="7">
         <v>1</v>
       </c>
-      <c r="P15" s="4">
+      <c r="P17" s="12">
         <v>5.5</v>
       </c>
-      <c r="Y15" s="4">
+      <c r="Y17" s="12">
         <v>2.69</v>
       </c>
-      <c r="Z15" s="4">
+      <c r="Z17" s="12">
         <v>2.12</v>
       </c>
-      <c r="AC15" s="4">
+      <c r="AC17" s="12">
         <v>2.69</v>
       </c>
-      <c r="AD15" s="4">
+      <c r="AD17" s="12">
         <v>2.41</v>
       </c>
-      <c r="AO15" s="4">
+      <c r="AO17" s="12">
         <v>3</v>
       </c>
-      <c r="AP15" s="4">
+      <c r="AP17" s="12">
         <v>3</v>
       </c>
-      <c r="BI15" s="4">
+      <c r="BI17" s="12">
         <v>4.3490000000000002</v>
       </c>
-      <c r="BJ15" s="4">
+      <c r="BJ17" s="12">
         <v>4.3490000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:78" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+    <row r="18" spans="1:62" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B18" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C18" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D18" s="7">
         <v>1</v>
       </c>
-      <c r="S16" s="4">
+      <c r="S18" s="12">
         <v>1.76</v>
       </c>
-      <c r="T16" s="4">
+      <c r="T18" s="12">
         <v>1.66</v>
       </c>
-      <c r="AU16" s="4">
+      <c r="AU18" s="12">
         <v>1.365</v>
       </c>
-      <c r="AV16" s="4">
+      <c r="AV18" s="12">
         <v>1.365</v>
       </c>
-      <c r="BF16" s="4">
+      <c r="BF18" s="12">
         <v>1.365</v>
       </c>
-      <c r="BG16" s="4">
+      <c r="BG18" s="12">
         <v>1.365</v>
       </c>
     </row>
-    <row r="17" spans="1:62" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+    <row r="19" spans="1:62" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B19" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C19" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D19" s="7">
         <v>1</v>
       </c>
-      <c r="BH17" s="4">
+      <c r="BH19" s="12">
         <v>0.65</v>
       </c>
-      <c r="BI17" s="4">
+      <c r="BI19" s="12">
         <v>1.1910000000000001</v>
       </c>
-      <c r="BJ17" s="4">
+      <c r="BJ19" s="12">
         <v>1.1910000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:62" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+    <row r="20" spans="1:62" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B20" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C20" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="7">
         <v>1</v>
       </c>
-      <c r="M18" s="4">
+      <c r="M20" s="12">
         <v>23.29</v>
       </c>
     </row>
-    <row r="19" spans="1:62" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+    <row r="21" spans="1:62" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B21" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3">
+      <c r="C21" s="11"/>
+      <c r="D21" s="7">
         <v>1</v>
       </c>
-      <c r="BH19" s="4">
+      <c r="BH21" s="12">
         <v>8.43</v>
       </c>
     </row>
-    <row r="20" spans="1:62" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+    <row r="22" spans="1:62" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B22" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3">
+      <c r="C22" s="11"/>
+      <c r="D22" s="7">
         <v>1</v>
       </c>
-      <c r="BH20" s="4">
+      <c r="BH22" s="12">
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:62" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+    <row r="23" spans="1:62" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B23" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C23" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D23" s="7">
         <v>2</v>
       </c>
-      <c r="BH21" s="4">
+      <c r="BH23" s="12">
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:62" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+    <row r="24" spans="1:62" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B24" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C24" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D24" s="7">
         <v>1</v>
       </c>
-      <c r="Y22" s="4">
+      <c r="Y24" s="12">
         <v>-5.69</v>
       </c>
-      <c r="AA22" s="4">
+      <c r="AA24" s="12">
         <v>-5.5</v>
       </c>
-      <c r="AD22" s="4">
+      <c r="AD24" s="12">
         <v>-6.92</v>
       </c>
-      <c r="AE22" s="4">
+      <c r="AE24" s="12">
         <v>-6.22</v>
       </c>
-      <c r="AL22" s="4">
+      <c r="AL24" s="12">
         <v>-6.8000000000000005E-2</v>
       </c>
-      <c r="AS22" s="4">
+      <c r="AS24" s="12">
         <v>-4.87</v>
       </c>
-      <c r="AT22" s="4">
+      <c r="AT24" s="12">
         <v>-4.87</v>
       </c>
-      <c r="BF22" s="4">
+      <c r="BF24" s="12">
         <v>-1.704</v>
       </c>
-      <c r="BG22" s="4">
+      <c r="BG24" s="12">
         <v>-1.704</v>
       </c>
-      <c r="BH22" s="4">
+      <c r="BH24" s="12">
         <v>-5</v>
       </c>
     </row>

--- a/models.xlsx
+++ b/models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurferreira/Google Drive - arthurde/LSCMR/6MWT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844321BB-DAF3-5B40-99B9-B42969271DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59D885F-3A7B-574D-9599-275401E5F4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="660" windowWidth="29360" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="122">
   <si>
     <t>Poh et. al 2006</t>
   </si>
@@ -74,9 +74,6 @@
     <t>10.1016/j.rmed.2006.01.001</t>
   </si>
   <si>
-    <t>10.1164/rccm.200607-883OC</t>
-  </si>
-  <si>
     <t>10.1590/S0100-879X2009005000032</t>
   </si>
   <si>
@@ -350,9 +347,6 @@
     <t>Chetta et al. 2006</t>
   </si>
   <si>
-    <t>Li et al. 2007</t>
-  </si>
-  <si>
     <t>Masmoudi et al. 2008</t>
   </si>
   <si>
@@ -401,10 +395,13 @@
     <t>L</t>
   </si>
   <si>
-    <t>ln</t>
-  </si>
-  <si>
     <t>Sex code female</t>
+  </si>
+  <si>
+    <t>∆HR</t>
+  </si>
+  <si>
+    <t>∆FC</t>
   </si>
 </sst>
 </file>
@@ -758,253 +755,246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BZ24"/>
+  <dimension ref="A1:BY26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="26.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="34.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="32.1640625" style="6" customWidth="1"/>
-    <col min="11" max="12" width="20.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="24" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24" style="6" customWidth="1"/>
-    <col min="16" max="16" width="29.83203125" style="6" customWidth="1"/>
-    <col min="17" max="18" width="24" style="6" customWidth="1"/>
-    <col min="19" max="20" width="25.33203125" style="6" customWidth="1"/>
-    <col min="21" max="22" width="35.83203125" style="6" customWidth="1"/>
-    <col min="23" max="24" width="32.1640625" style="6" customWidth="1"/>
-    <col min="25" max="32" width="25.5" style="6" customWidth="1"/>
-    <col min="33" max="33" width="24" style="6" customWidth="1"/>
-    <col min="34" max="34" width="24" style="6" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="24" style="6" customWidth="1"/>
-    <col min="36" max="37" width="31.5" style="6" customWidth="1"/>
-    <col min="38" max="38" width="32.1640625" style="6" customWidth="1"/>
-    <col min="39" max="40" width="31.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="50.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="14.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="45" max="48" width="31.5" style="6" customWidth="1"/>
-    <col min="49" max="49" width="36.33203125" style="6" customWidth="1"/>
-    <col min="50" max="50" width="20.5" style="6" customWidth="1"/>
-    <col min="51" max="51" width="22.6640625" style="6" customWidth="1"/>
-    <col min="52" max="53" width="35.83203125" style="6" customWidth="1"/>
-    <col min="54" max="55" width="28.1640625" style="6" customWidth="1"/>
-    <col min="56" max="59" width="25.83203125" style="6" customWidth="1"/>
-    <col min="60" max="60" width="29.1640625" style="6" customWidth="1"/>
-    <col min="61" max="62" width="25.6640625" style="6" customWidth="1"/>
-    <col min="63" max="63" width="25.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="25.83203125" style="6" customWidth="1"/>
-    <col min="65" max="73" width="10.6640625" style="6" customWidth="1"/>
-    <col min="74" max="78" width="11.1640625" style="6" customWidth="1"/>
-    <col min="79" max="16384" width="11.1640625" style="6"/>
+    <col min="1" max="2" width="15.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="36.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="35.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="23" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="26.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="26.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="39.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="35.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="30" width="28.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="26.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="34.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="35.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="34.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="54.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="43" max="46" width="34.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="47" max="48" width="40.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="25.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="39.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="30.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="54" max="57" width="28.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="32.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="28.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="28.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="64" max="72" width="10.6640625" style="6" customWidth="1"/>
+    <col min="73" max="77" width="11.1640625" style="6" customWidth="1"/>
+    <col min="78" max="16384" width="11.1640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:77" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="AH1" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="AK1" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="AM1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AO1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="AX1" s="1" t="s">
         <v>96</v>
       </c>
       <c r="AY1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="BH1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="BH1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>117</v>
-      </c>
+      <c r="BL1" s="1"/>
       <c r="BM1" s="1"/>
       <c r="BN1" s="1"/>
-      <c r="BO1" s="1"/>
+      <c r="BO1" s="4"/>
       <c r="BP1" s="4"/>
       <c r="BQ1" s="4"/>
       <c r="BR1" s="4"/>
@@ -1015,9 +1005,8 @@
       <c r="BW1" s="4"/>
       <c r="BX1" s="4"/>
       <c r="BY1" s="4"/>
-      <c r="BZ1" s="4"/>
     </row>
-    <row r="2" spans="1:78" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:77" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -1066,16 +1055,16 @@
         <v>2006</v>
       </c>
       <c r="S2" s="7">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="T2" s="7">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="U2" s="7">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="V2" s="7">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="W2" s="7">
         <v>2009</v>
@@ -1111,37 +1100,37 @@
         <v>2009</v>
       </c>
       <c r="AH2" s="7">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="AI2" s="7">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="AJ2" s="7">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="AK2" s="7">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="AL2" s="7">
         <v>2011</v>
       </c>
       <c r="AM2" s="7">
+        <v>2010</v>
+      </c>
+      <c r="AN2" s="7">
+        <v>2010</v>
+      </c>
+      <c r="AO2" s="7">
         <v>2011</v>
       </c>
-      <c r="AN2" s="7">
+      <c r="AP2" s="7">
         <v>2011</v>
       </c>
-      <c r="AO2" s="7">
-        <v>2010</v>
-      </c>
-      <c r="AP2" s="7">
-        <v>2010</v>
-      </c>
       <c r="AQ2" s="7">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="AR2" s="7">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="AS2" s="7">
         <v>2013</v>
@@ -1156,31 +1145,31 @@
         <v>2013</v>
       </c>
       <c r="AW2" s="7">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="AX2" s="7">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="AY2" s="7">
         <v>2014</v>
       </c>
       <c r="AZ2" s="7">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="BA2" s="7">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="BB2" s="7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="BC2" s="7">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="BD2" s="7">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="BE2" s="7">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="BF2" s="7">
         <v>2019</v>
@@ -1189,22 +1178,19 @@
         <v>2019</v>
       </c>
       <c r="BH2" s="7">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="BI2" s="7">
         <v>2022</v>
       </c>
       <c r="BJ2" s="7">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="BK2" s="7">
         <v>2023</v>
       </c>
-      <c r="BL2" s="7">
-        <v>2023</v>
-      </c>
     </row>
-    <row r="3" spans="1:78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1250,14 +1236,14 @@
       <c r="R3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="V3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="9"/>
-      <c r="V3" s="9"/>
       <c r="W3" s="9" t="s">
         <v>13</v>
       </c>
@@ -1265,28 +1251,28 @@
         <v>13</v>
       </c>
       <c r="Y3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AD3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE3" s="9" t="s">
         <v>14</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG3" s="9" t="s">
         <v>15</v>
@@ -1297,11 +1283,11 @@
       <c r="AI3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="AJ3" s="9" t="s">
+      <c r="AJ3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AK3" s="9" t="s">
-        <v>17</v>
+      <c r="AK3" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="AL3" s="11" t="s">
         <v>18</v>
@@ -1325,10 +1311,10 @@
         <v>21</v>
       </c>
       <c r="AS3" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT3" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU3" s="11" t="s">
         <v>22</v>
@@ -1339,14 +1325,14 @@
       <c r="AW3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AX3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AY3" s="11" t="s">
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AZ3" s="11"/>
-      <c r="BA3" s="11"/>
+      <c r="BA3" s="11" t="s">
+        <v>24</v>
+      </c>
       <c r="BB3" s="11" t="s">
         <v>25</v>
       </c>
@@ -1369,20 +1355,18 @@
         <v>28</v>
       </c>
       <c r="BI3" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BJ3" s="11" t="s">
         <v>29</v>
       </c>
       <c r="BK3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="BL3" s="11" t="s">
-        <v>30</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="BL3" s="11"/>
       <c r="BM3" s="11"/>
       <c r="BN3" s="11"/>
-      <c r="BO3" s="11"/>
+      <c r="BO3" s="12"/>
       <c r="BP3" s="12"/>
       <c r="BQ3" s="12"/>
       <c r="BR3" s="12"/>
@@ -1393,11 +1377,10 @@
       <c r="BW3" s="12"/>
       <c r="BX3" s="12"/>
       <c r="BY3" s="12"/>
-      <c r="BZ3" s="12"/>
     </row>
-    <row r="4" spans="1:78" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:77" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="15"/>
@@ -1414,14 +1397,14 @@
       <c r="P4" s="15"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>32</v>
-      </c>
+      <c r="S4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
       <c r="W4" s="15"/>
       <c r="X4" s="15"/>
       <c r="Y4" s="15"/>
@@ -1446,19 +1429,21 @@
       <c r="AR4" s="15"/>
       <c r="AS4" s="15"/>
       <c r="AT4" s="15"/>
-      <c r="AU4" s="15"/>
-      <c r="AV4" s="15"/>
-      <c r="AW4" s="15" t="s">
+      <c r="AU4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AX4" s="15"/>
-      <c r="AY4" s="15"/>
-      <c r="AZ4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="BA4" s="15" t="s">
-        <v>34</v>
-      </c>
+      <c r="AY4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
       <c r="BB4" s="15"/>
       <c r="BC4" s="15"/>
       <c r="BD4" s="15"/>
@@ -1472,7 +1457,7 @@
       <c r="BL4" s="15"/>
       <c r="BM4" s="15"/>
       <c r="BN4" s="15"/>
-      <c r="BO4" s="15"/>
+      <c r="BO4" s="16"/>
       <c r="BP4" s="16"/>
       <c r="BQ4" s="16"/>
       <c r="BR4" s="16"/>
@@ -1483,11 +1468,10 @@
       <c r="BW4" s="16"/>
       <c r="BX4" s="16"/>
       <c r="BY4" s="16"/>
-      <c r="BZ4" s="16"/>
     </row>
-    <row r="5" spans="1:78" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:77" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1535,34 +1519,34 @@
         <v>48</v>
       </c>
       <c r="S5" s="18">
-        <v>805</v>
+        <v>75</v>
       </c>
       <c r="T5" s="18">
-        <v>640</v>
+        <v>80</v>
       </c>
       <c r="U5" s="18">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="V5" s="18">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="W5" s="18">
+        <v>48</v>
+      </c>
+      <c r="X5" s="18">
         <v>61</v>
       </c>
-      <c r="X5" s="18">
-        <v>73</v>
-      </c>
       <c r="Y5" s="18">
+        <v>48</v>
+      </c>
+      <c r="Z5" s="18">
         <v>61</v>
       </c>
-      <c r="Z5" s="18">
+      <c r="AA5" s="18">
         <v>48</v>
       </c>
-      <c r="AA5" s="18">
+      <c r="AB5" s="18">
         <v>61</v>
-      </c>
-      <c r="AB5" s="18">
-        <v>48</v>
       </c>
       <c r="AC5" s="18">
         <v>48</v>
@@ -1571,46 +1555,46 @@
         <v>61</v>
       </c>
       <c r="AE5" s="18">
-        <v>61</v>
+        <v>298</v>
       </c>
       <c r="AF5" s="18">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="AG5" s="18">
-        <v>298</v>
+        <v>104</v>
       </c>
       <c r="AH5" s="18">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="AI5" s="18">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="AJ5" s="18">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="AK5" s="18">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="AL5" s="18">
-        <v>132</v>
+        <v>54</v>
       </c>
       <c r="AM5" s="18">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="AN5" s="18">
-        <v>54</v>
+        <v>238</v>
       </c>
       <c r="AO5" s="18">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="AP5" s="18">
-        <v>238</v>
+        <v>37</v>
       </c>
       <c r="AQ5" s="18">
-        <v>40</v>
+        <v>296</v>
       </c>
       <c r="AR5" s="18">
-        <v>37</v>
+        <v>321</v>
       </c>
       <c r="AS5" s="18">
         <v>296</v>
@@ -1619,144 +1603,141 @@
         <v>321</v>
       </c>
       <c r="AU5" s="18">
-        <v>296</v>
+        <v>85</v>
       </c>
       <c r="AV5" s="18">
-        <v>321</v>
+        <v>211</v>
       </c>
       <c r="AW5" s="18">
-        <v>85</v>
+        <v>259</v>
       </c>
       <c r="AX5" s="18">
-        <v>211</v>
+        <v>58</v>
       </c>
       <c r="AY5" s="18">
-        <v>259</v>
+        <v>65</v>
       </c>
       <c r="AZ5" s="18">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="BA5" s="18">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="BB5" s="18">
-        <v>89</v>
+        <v>319</v>
       </c>
       <c r="BC5" s="18">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="BD5" s="18">
-        <v>319</v>
+        <v>158</v>
       </c>
       <c r="BE5" s="18">
-        <v>324</v>
+        <v>158</v>
       </c>
       <c r="BF5" s="18">
-        <v>89</v>
+        <v>215</v>
       </c>
       <c r="BG5" s="18">
-        <v>69</v>
+        <v>215</v>
       </c>
       <c r="BH5" s="18">
-        <v>215</v>
+        <v>82</v>
       </c>
       <c r="BI5" s="18">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="BJ5" s="18">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="BK5" s="18">
-        <v>163</v>
-      </c>
-      <c r="BL5" s="18">
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:78" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:77" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="N6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="O6" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="Q6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="O6" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="P6" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q6" s="18" t="s">
-        <v>91</v>
-      </c>
       <c r="R6" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S6" s="18" t="s">
         <v>90</v>
       </c>
       <c r="T6" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="U6" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="V6" s="18" t="s">
         <v>90</v>
       </c>
       <c r="W6" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="X6" s="18" t="s">
-        <v>91</v>
-      </c>
       <c r="Y6" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z6" s="18" t="s">
         <v>90</v>
       </c>
       <c r="AA6" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AB6" s="18" t="s">
         <v>90</v>
       </c>
       <c r="AC6" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD6" s="18" t="s">
         <v>90</v>
-      </c>
-      <c r="AD6" s="18" t="s">
-        <v>91</v>
       </c>
       <c r="AE6" s="18" t="s">
         <v>91</v>
@@ -1765,114 +1746,108 @@
         <v>90</v>
       </c>
       <c r="AG6" s="18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AH6" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AI6" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AJ6" s="18" t="s">
         <v>91</v>
       </c>
       <c r="AK6" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL6" s="18" t="s">
         <v>90</v>
-      </c>
-      <c r="AL6" s="18" t="s">
-        <v>92</v>
       </c>
       <c r="AM6" s="18" t="s">
         <v>90</v>
       </c>
       <c r="AN6" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AO6" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AP6" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AQ6" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AR6" s="18" t="s">
         <v>90</v>
       </c>
       <c r="AS6" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT6" s="18" t="s">
         <v>90</v>
-      </c>
-      <c r="AT6" s="18" t="s">
-        <v>91</v>
       </c>
       <c r="AU6" s="18" t="s">
         <v>90</v>
       </c>
       <c r="AV6" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AW6" s="18" t="s">
         <v>91</v>
       </c>
       <c r="AX6" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY6" s="18" t="s">
         <v>90</v>
-      </c>
-      <c r="AY6" s="18" t="s">
-        <v>92</v>
       </c>
       <c r="AZ6" s="18" t="s">
         <v>90</v>
       </c>
       <c r="BA6" s="18" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BB6" s="18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC6" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="BD6" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="BE6" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BF6" s="18" t="s">
         <v>91</v>
       </c>
       <c r="BG6" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="BH6" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="BH6" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="BI6" s="19" t="s">
+      <c r="BJ6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="BJ6" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK6" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="BL6" s="19" t="s">
-        <v>90</v>
+      <c r="BK6" s="19" t="s">
+        <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:78" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:77" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
       <c r="G7" s="18">
         <v>1</v>
       </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
       <c r="J7" s="18">
         <v>1</v>
       </c>
@@ -1882,14 +1857,32 @@
       <c r="Q7" s="18">
         <v>1</v>
       </c>
+      <c r="R7" s="18">
+        <v>0</v>
+      </c>
+      <c r="S7" s="18">
+        <v>0</v>
+      </c>
+      <c r="T7" s="18">
+        <v>1</v>
+      </c>
+      <c r="U7" s="18">
+        <v>1</v>
+      </c>
       <c r="V7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="18">
         <v>1</v>
       </c>
-      <c r="W7" s="18">
+      <c r="AG7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="18">
         <v>1</v>
       </c>
-      <c r="AH7" s="18">
-        <v>1</v>
+      <c r="AL7" s="18">
+        <v>0</v>
       </c>
       <c r="AM7" s="18">
         <v>1</v>
@@ -1898,24 +1891,33 @@
         <v>0</v>
       </c>
       <c r="AO7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="18">
         <v>1</v>
       </c>
-      <c r="AP7" s="18">
-        <v>0</v>
+      <c r="AQ7" s="18">
+        <v>1</v>
       </c>
       <c r="AR7" s="18">
         <v>0</v>
       </c>
+      <c r="AS7" s="18">
+        <v>1</v>
+      </c>
       <c r="AT7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="18">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="18">
         <v>1</v>
       </c>
-      <c r="AU7" s="18">
-        <v>1</v>
-      </c>
-      <c r="AW7" s="18">
+      <c r="AX7" s="18">
         <v>0</v>
       </c>
-      <c r="AX7" s="18">
+      <c r="AY7" s="18">
         <v>1</v>
       </c>
       <c r="AZ7" s="18">
@@ -1924,75 +1926,72 @@
       <c r="BA7" s="18">
         <v>1</v>
       </c>
-      <c r="BB7" s="18">
+      <c r="BD7" s="18">
         <v>0</v>
       </c>
-      <c r="BC7" s="18">
-        <v>1</v>
+      <c r="BE7" s="18">
+        <v>0</v>
       </c>
       <c r="BF7" s="18">
         <v>0</v>
       </c>
       <c r="BG7" s="18">
+        <v>0</v>
+      </c>
+      <c r="BH7" s="19">
         <v>1</v>
       </c>
-      <c r="BH7" s="18">
+      <c r="BI7" s="18">
         <v>0</v>
       </c>
-      <c r="BI7" s="19">
-        <v>1</v>
-      </c>
-      <c r="BJ7" s="18">
-        <v>0</v>
-      </c>
-      <c r="BL7" s="19"/>
+      <c r="BK7" s="19"/>
     </row>
-    <row r="8" spans="1:78" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:77" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="H8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="I8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="J8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="K8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J8" s="15" t="s">
+      <c r="N8" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="M8" s="15" t="s">
+      <c r="O8" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P8" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="N8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="P8" s="15" t="s">
+      <c r="Q8" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="Q8" s="15" t="s">
-        <v>42</v>
-      </c>
       <c r="R8" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S8" s="15" t="s">
         <v>43</v>
@@ -2013,52 +2012,52 @@
         <v>45</v>
       </c>
       <c r="Y8" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z8" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA8" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AB8" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AC8" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AD8" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AE8" s="15" t="s">
         <v>46</v>
       </c>
       <c r="AF8" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="AG8" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH8" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AH8" s="15" t="s">
+      <c r="AI8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AJ8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AI8" s="15" t="s">
+      <c r="AK8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AJ8" s="15" t="s">
+      <c r="AL8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM8" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AK8" s="15" t="s">
+      <c r="AN8" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="AL8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN8" s="15" t="s">
-        <v>45</v>
       </c>
       <c r="AO8" s="15" t="s">
         <v>49</v>
@@ -2067,28 +2066,28 @@
         <v>49</v>
       </c>
       <c r="AQ8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU8" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="AR8" s="15" t="s">
+      <c r="AV8" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="AS8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV8" s="15" t="s">
-        <v>45</v>
       </c>
       <c r="AW8" s="15" t="s">
         <v>51</v>
       </c>
       <c r="AX8" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AY8" s="15" t="s">
         <v>52</v>
@@ -2100,41 +2099,39 @@
         <v>53</v>
       </c>
       <c r="BB8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC8" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="BD8" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="BC8" s="15" t="s">
+      <c r="BE8" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="BD8" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="BE8" s="15" t="s">
-        <v>43</v>
-      </c>
       <c r="BF8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BG8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BH8" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="BG8" s="15" t="s">
+      <c r="BI8" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="BH8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="BI8" s="15" t="s">
-        <v>56</v>
-      </c>
       <c r="BJ8" s="15" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="BK8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="BL8" s="15" t="s">
-        <v>50</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="BL8" s="15"/>
       <c r="BM8" s="15"/>
       <c r="BN8" s="15"/>
-      <c r="BO8" s="15"/>
+      <c r="BO8" s="16"/>
       <c r="BP8" s="16"/>
       <c r="BQ8" s="16"/>
       <c r="BR8" s="16"/>
@@ -2145,14 +2142,13 @@
       <c r="BW8" s="16"/>
       <c r="BX8" s="16"/>
       <c r="BY8" s="16"/>
-      <c r="BZ8" s="16"/>
     </row>
-    <row r="9" spans="1:78" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:77" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="7">
@@ -2201,179 +2197,182 @@
         <v>518.85299999999995</v>
       </c>
       <c r="S9" s="12">
-        <v>554.16</v>
+        <v>299.8</v>
       </c>
       <c r="T9" s="12">
-        <v>526.79</v>
+        <v>299.8</v>
       </c>
       <c r="U9" s="12">
-        <v>299.8</v>
+        <v>622.46100000000001</v>
       </c>
       <c r="V9" s="12">
-        <v>299.8</v>
+        <v>622.46100000000001</v>
       </c>
       <c r="W9" s="12">
-        <v>622.46100000000001</v>
+        <v>1005</v>
       </c>
       <c r="X9" s="12">
-        <v>622.46100000000001</v>
+        <v>602</v>
       </c>
       <c r="Y9" s="12">
+        <v>849</v>
+      </c>
+      <c r="Z9" s="12">
         <v>594</v>
       </c>
-      <c r="Z9" s="12">
-        <v>849</v>
-      </c>
       <c r="AA9" s="12">
-        <v>602</v>
+        <v>748</v>
       </c>
       <c r="AB9" s="12">
-        <v>1005</v>
+        <v>541</v>
       </c>
       <c r="AC9" s="12">
-        <v>748</v>
+        <v>867</v>
       </c>
       <c r="AD9" s="12">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="AE9" s="12">
-        <v>525</v>
+        <v>-28.5</v>
       </c>
       <c r="AF9" s="12">
-        <v>867</v>
+        <v>720.5</v>
       </c>
       <c r="AG9" s="12">
-        <v>-28.5</v>
+        <v>720.5</v>
       </c>
       <c r="AH9" s="12">
-        <v>720.5</v>
+        <v>457</v>
       </c>
       <c r="AI9" s="12">
-        <v>720.5</v>
+        <v>530</v>
       </c>
       <c r="AJ9" s="12">
-        <v>457</v>
+        <v>511</v>
       </c>
       <c r="AK9" s="12">
-        <v>530</v>
+        <v>299.29599999999999</v>
       </c>
       <c r="AL9" s="12">
-        <v>511</v>
+        <v>299.29599999999999</v>
       </c>
       <c r="AM9" s="12">
-        <v>299.29599999999999</v>
+        <v>361</v>
       </c>
       <c r="AN9" s="12">
-        <v>299.29599999999999</v>
+        <v>361</v>
       </c>
       <c r="AO9" s="12">
-        <v>361</v>
+        <v>970.7</v>
       </c>
       <c r="AP9" s="12">
-        <v>361</v>
+        <v>970.7</v>
       </c>
       <c r="AQ9" s="12">
-        <v>970.7</v>
+        <v>890.46</v>
       </c>
       <c r="AR9" s="12">
-        <v>970.7</v>
+        <v>890.46</v>
       </c>
       <c r="AS9" s="12">
-        <v>890.46</v>
+        <v>356.65800000000002</v>
       </c>
       <c r="AT9" s="12">
-        <v>890.46</v>
+        <v>356.65800000000002</v>
       </c>
       <c r="AU9" s="12">
-        <v>356.65800000000002</v>
+        <v>164.08</v>
       </c>
       <c r="AV9" s="12">
-        <v>356.65800000000002</v>
+        <v>164.08</v>
       </c>
       <c r="AW9" s="12">
-        <v>164.08</v>
+        <v>105.7</v>
       </c>
       <c r="AX9" s="12">
-        <v>164.08</v>
+        <v>586.25400000000002</v>
       </c>
       <c r="AY9" s="12">
-        <v>105.7</v>
+        <v>586.25400000000002</v>
       </c>
       <c r="AZ9" s="12">
-        <v>586.25400000000002</v>
+        <v>553.28899999999999</v>
       </c>
       <c r="BA9" s="12">
-        <v>586.25400000000002</v>
+        <v>553.28899999999999</v>
       </c>
       <c r="BB9" s="12">
-        <v>553.28899999999999</v>
+        <v>233.994</v>
       </c>
       <c r="BC9" s="12">
-        <v>553</v>
+        <v>141.327</v>
       </c>
       <c r="BD9" s="12">
-        <v>233.994</v>
+        <v>787.18700000000001</v>
       </c>
       <c r="BE9" s="12">
-        <v>141.327</v>
+        <v>721.75300000000004</v>
       </c>
       <c r="BF9" s="12">
-        <v>356.65800000000002</v>
+        <v>910.1</v>
       </c>
       <c r="BG9" s="12">
-        <v>356.65800000000002</v>
+        <v>778.1</v>
       </c>
       <c r="BH9" s="12">
-        <v>778.1</v>
+        <v>-185.34100000000001</v>
       </c>
       <c r="BI9" s="12">
-        <v>-185.34100000000001</v>
+        <v>-185.43100000000001</v>
       </c>
       <c r="BJ9" s="12">
-        <v>-185.43100000000001</v>
+        <v>498.06</v>
       </c>
       <c r="BK9" s="12">
-        <v>498.06</v>
-      </c>
-      <c r="BL9" s="12">
         <v>489.22</v>
       </c>
     </row>
-    <row r="10" spans="1:78" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:77" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="C10" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="U10" s="12">
+      <c r="S10" s="12">
         <v>342.6</v>
       </c>
-      <c r="V10" s="12">
+      <c r="T10" s="12">
         <v>342.6</v>
       </c>
-      <c r="AM10" s="12">
+      <c r="AK10" s="12">
         <v>361.73099999999999</v>
       </c>
-      <c r="AN10" s="12">
+      <c r="AL10" s="12">
         <v>361.73099999999999</v>
       </c>
+      <c r="BH10" s="12">
+        <v>288.28199999999998</v>
+      </c>
+      <c r="BI10" s="12">
+        <v>288.28199999999998</v>
+      </c>
     </row>
-    <row r="11" spans="1:78" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:77" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="C11" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="7">
         <v>1</v>
@@ -2414,673 +2413,698 @@
       <c r="R11" s="12">
         <v>1.25</v>
       </c>
-      <c r="S11" s="12">
-        <v>1.23</v>
-      </c>
-      <c r="T11" s="12">
-        <v>0.62</v>
+      <c r="W11" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="X11" s="12">
+        <v>2.0499999999999998</v>
       </c>
       <c r="Y11" s="12">
+        <v>0.22</v>
+      </c>
+      <c r="Z11" s="12">
         <v>1.0900000000000001</v>
       </c>
-      <c r="Z11" s="12">
-        <v>0.22</v>
-      </c>
       <c r="AA11" s="12">
-        <v>2.0499999999999998</v>
+        <v>0.64</v>
       </c>
       <c r="AB11" s="12">
-        <v>0.89</v>
+        <v>1.8</v>
       </c>
       <c r="AC11" s="12">
-        <v>0.64</v>
+        <v>1.03</v>
       </c>
       <c r="AD11" s="12">
-        <v>1.8</v>
+        <v>2.71</v>
       </c>
       <c r="AE11" s="12">
-        <v>2.71</v>
+        <v>2.81</v>
       </c>
       <c r="AF11" s="12">
-        <v>1.03</v>
+        <v>2.72</v>
       </c>
       <c r="AG11" s="12">
-        <v>2.81</v>
+        <v>2.72</v>
       </c>
       <c r="AH11" s="12">
-        <v>2.72</v>
+        <v>2.61</v>
       </c>
       <c r="AI11" s="12">
-        <v>2.72</v>
-      </c>
-      <c r="AJ11" s="12">
-        <v>2.61</v>
-      </c>
-      <c r="AK11" s="12">
         <v>2.36</v>
       </c>
-      <c r="AL11" s="12">
-        <v>6.6E-3</v>
-      </c>
-      <c r="AO11" s="12">
+      <c r="AM11" s="12">
         <v>2</v>
       </c>
-      <c r="AP11" s="12">
+      <c r="AN11" s="12">
         <v>2</v>
       </c>
+      <c r="AS11" s="12">
+        <v>1.704</v>
+      </c>
+      <c r="AT11" s="12">
+        <v>1.704</v>
+      </c>
       <c r="AU11" s="12">
-        <v>1.704</v>
+        <v>1.95</v>
       </c>
       <c r="AV11" s="12">
-        <v>1.704</v>
+        <v>1.95</v>
       </c>
       <c r="AW11" s="12">
-        <v>1.95</v>
+        <v>2.99</v>
       </c>
       <c r="AX11" s="12">
-        <v>1.95</v>
+        <v>-0.26500000000000001</v>
       </c>
       <c r="AY11" s="12">
-        <v>2.99</v>
-      </c>
-      <c r="AZ11" s="12">
         <v>-0.26500000000000001</v>
       </c>
-      <c r="BA11" s="12">
-        <v>-0.26500000000000001</v>
-      </c>
-      <c r="BD11" s="12">
+      <c r="BB11" s="12">
         <v>2.6320000000000001</v>
       </c>
-      <c r="BE11" s="12">
+      <c r="BC11" s="12">
         <v>3.0379999999999998</v>
       </c>
-      <c r="BI11" s="12">
-        <v>288.28199999999998</v>
-      </c>
       <c r="BJ11" s="12">
-        <v>288.28199999999998</v>
+        <v>2.64</v>
       </c>
       <c r="BK11" s="12">
-        <v>2.64</v>
-      </c>
-      <c r="BL11" s="12">
         <v>3.19</v>
       </c>
     </row>
-    <row r="12" spans="1:78" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:77" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D12" s="7">
         <v>2</v>
       </c>
-      <c r="AS12" s="12">
+      <c r="AJ12" s="12">
+        <v>6.6E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:77" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="12">
+        <v>-0.03</v>
+      </c>
+      <c r="AQ13" s="12">
         <v>3.4500000000000003E-2</v>
       </c>
-      <c r="AT12" s="12">
+      <c r="AR13" s="12">
         <v>3.4500000000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:78" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+    <row r="14" spans="1:77" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="C14" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12">
+        <v>-5.0199999999999996</v>
+      </c>
+      <c r="F14" s="12">
+        <v>-5.78</v>
+      </c>
+      <c r="G14" s="12">
+        <v>-5.32</v>
+      </c>
+      <c r="H14" s="12">
+        <v>-5.32</v>
+      </c>
+      <c r="I14" s="12">
+        <v>-2.99</v>
+      </c>
+      <c r="J14" s="12">
+        <v>-2.99</v>
+      </c>
+      <c r="K14" s="12">
+        <v>-5.3</v>
+      </c>
+      <c r="L14" s="12">
+        <v>-5.3</v>
+      </c>
+      <c r="N14" s="12">
+        <v>-1.75</v>
+      </c>
+      <c r="O14" s="12">
+        <v>-1.75</v>
+      </c>
+      <c r="P14" s="12">
+        <v>-4.49</v>
+      </c>
+      <c r="Q14" s="12">
+        <v>-2.8159999999999998</v>
+      </c>
+      <c r="R14" s="12">
+        <v>-2.8159999999999998</v>
+      </c>
+      <c r="S14" s="12">
+        <v>-4.34</v>
+      </c>
+      <c r="T14" s="12">
+        <v>-4.34</v>
+      </c>
+      <c r="U14" s="12">
+        <v>-1.8460000000000001</v>
+      </c>
+      <c r="V14" s="12">
+        <v>-1.8460000000000001</v>
+      </c>
+      <c r="W14" s="12">
+        <v>-5.68</v>
+      </c>
+      <c r="X14" s="12">
+        <v>-2.97</v>
+      </c>
+      <c r="Y14" s="12">
+        <v>-6.15</v>
+      </c>
+      <c r="Z14" s="12">
+        <v>-3.95</v>
+      </c>
+      <c r="AA14" s="12">
+        <v>-6.32</v>
+      </c>
+      <c r="AB14" s="12">
+        <v>-3.81</v>
+      </c>
+      <c r="AC14" s="12">
+        <v>-5.71</v>
+      </c>
+      <c r="AD14" s="12">
+        <v>-2.86</v>
+      </c>
+      <c r="AE14" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="AF14" s="12">
+        <v>-5.14</v>
+      </c>
+      <c r="AG14" s="12">
+        <v>-5.14</v>
+      </c>
+      <c r="AH14" s="12">
+        <v>-3.46</v>
+      </c>
+      <c r="AI14" s="12">
+        <v>-3.31</v>
+      </c>
+      <c r="AK14" s="12">
+        <v>-2.7280000000000002</v>
+      </c>
+      <c r="AL14" s="12">
+        <v>-2.7280000000000002</v>
+      </c>
+      <c r="AM14" s="12">
+        <v>-4</v>
+      </c>
+      <c r="AN14" s="12">
+        <v>-4</v>
+      </c>
+      <c r="AO14" s="12">
+        <v>-5.5</v>
+      </c>
+      <c r="AP14" s="12">
+        <v>-5.5</v>
+      </c>
+      <c r="AQ14" s="12">
+        <v>-6.11</v>
+      </c>
+      <c r="AR14" s="12">
+        <v>-6.11</v>
+      </c>
+      <c r="AS14" s="12">
+        <v>-2.3029999999999999</v>
+      </c>
+      <c r="AT14" s="12">
+        <v>-2.3029999999999999</v>
+      </c>
+      <c r="AU14" s="12">
+        <v>-1.9</v>
+      </c>
+      <c r="AV14" s="12">
+        <v>-1.9</v>
+      </c>
+      <c r="AX14" s="12">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="AY14" s="12">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="AZ14" s="12">
+        <v>-2.11</v>
+      </c>
+      <c r="BA14" s="12">
+        <v>-2.11</v>
+      </c>
+      <c r="BB14" s="12">
+        <v>-1.8149999999999999</v>
+      </c>
+      <c r="BC14" s="12">
+        <v>-1.0389999999999999</v>
+      </c>
+      <c r="BD14" s="12">
+        <v>-2.0249999999999999</v>
+      </c>
+      <c r="BE14" s="12">
+        <v>-1.6060000000000001</v>
+      </c>
+      <c r="BH14" s="12">
+        <v>-1.343</v>
+      </c>
+      <c r="BI14" s="12">
+        <v>-1.343</v>
+      </c>
+      <c r="BJ14" s="12">
+        <v>-4.8</v>
+      </c>
+      <c r="BK14" s="12">
+        <v>-4.33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:77" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="7">
+        <v>-1</v>
+      </c>
+      <c r="BF15" s="12">
+        <v>-60.7</v>
+      </c>
+      <c r="BG15" s="12">
+        <v>-42.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:77" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="B16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12">
-        <v>-5.0199999999999996</v>
-      </c>
-      <c r="F13" s="12">
-        <v>-5.78</v>
-      </c>
-      <c r="G13" s="12">
-        <v>-5.32</v>
-      </c>
-      <c r="H13" s="12">
-        <v>-5.32</v>
-      </c>
-      <c r="I13" s="12">
-        <v>-2.99</v>
-      </c>
-      <c r="J13" s="12">
-        <v>-2.99</v>
-      </c>
-      <c r="K13" s="12">
-        <v>-5.3</v>
-      </c>
-      <c r="L13" s="12">
-        <v>-5.3</v>
-      </c>
-      <c r="N13" s="12">
-        <v>-1.75</v>
-      </c>
-      <c r="O13" s="12">
-        <v>-1.75</v>
-      </c>
-      <c r="P13" s="12">
-        <v>-4.49</v>
-      </c>
-      <c r="Q13" s="12">
-        <v>-2.8159999999999998</v>
-      </c>
-      <c r="R13" s="12">
-        <v>-2.8159999999999998</v>
-      </c>
-      <c r="U13" s="12">
-        <v>-4.34</v>
-      </c>
-      <c r="V13" s="12">
-        <v>-4.34</v>
-      </c>
-      <c r="W13" s="12">
-        <v>-1.8460000000000001</v>
-      </c>
-      <c r="X13" s="12">
-        <v>-1.8460000000000001</v>
-      </c>
-      <c r="Y13" s="12">
-        <v>-3.95</v>
-      </c>
-      <c r="Z13" s="12">
-        <v>-6.15</v>
-      </c>
-      <c r="AA13" s="12">
-        <v>-2.97</v>
-      </c>
-      <c r="AB13" s="12">
-        <v>-5.68</v>
-      </c>
-      <c r="AC13" s="12">
-        <v>-6.32</v>
-      </c>
-      <c r="AD13" s="12">
-        <v>-3.81</v>
-      </c>
-      <c r="AE13" s="12">
-        <v>-2.86</v>
-      </c>
-      <c r="AF13" s="12">
-        <v>-5.71</v>
-      </c>
-      <c r="AG13" s="12">
-        <v>0.79</v>
-      </c>
-      <c r="AH13" s="12">
-        <v>-5.14</v>
-      </c>
-      <c r="AI13" s="12">
-        <v>-5.14</v>
-      </c>
-      <c r="AJ13" s="12">
-        <v>-3.46</v>
-      </c>
-      <c r="AK13" s="12">
-        <v>-3.31</v>
-      </c>
-      <c r="AL13" s="12">
-        <v>-0.03</v>
-      </c>
-      <c r="AM13" s="12">
-        <v>-2.7280000000000002</v>
-      </c>
-      <c r="AN13" s="12">
-        <v>-2.7280000000000002</v>
-      </c>
-      <c r="AO13" s="12">
-        <v>-4</v>
-      </c>
-      <c r="AP13" s="12">
-        <v>-4</v>
-      </c>
-      <c r="AQ13" s="12">
-        <v>-5.5</v>
-      </c>
-      <c r="AR13" s="12">
-        <v>-5.5</v>
-      </c>
-      <c r="AS13" s="12">
-        <v>-6.11</v>
-      </c>
-      <c r="AT13" s="12">
-        <v>-6.11</v>
-      </c>
-      <c r="AU13" s="12">
-        <v>-2.3029999999999999</v>
-      </c>
-      <c r="AV13" s="12">
-        <v>-2.3029999999999999</v>
-      </c>
-      <c r="AW13" s="12">
-        <v>-1.9</v>
-      </c>
-      <c r="AX13" s="12">
-        <v>-1.9</v>
-      </c>
-      <c r="AZ13" s="12">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="BA13" s="12">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="BB13" s="12">
-        <v>-2.11</v>
-      </c>
-      <c r="BC13" s="12">
-        <v>-2.11</v>
-      </c>
-      <c r="BD13" s="12">
-        <v>-1.8149999999999999</v>
-      </c>
-      <c r="BE13" s="12">
-        <v>-1.0389999999999999</v>
-      </c>
-      <c r="BF13" s="12">
-        <v>-2.3029999999999999</v>
-      </c>
-      <c r="BG13" s="12">
-        <v>-2.3029999999999999</v>
-      </c>
-      <c r="BI13" s="12">
-        <v>-1.343</v>
-      </c>
-      <c r="BJ13" s="12">
-        <v>-1.343</v>
-      </c>
-      <c r="BK13" s="12">
-        <v>-4.8</v>
-      </c>
-      <c r="BL13" s="12">
-        <v>-4.33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:78" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="BH14" s="12">
-        <v>-42.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:78" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="12">
-        <v>-1.76</v>
-      </c>
-      <c r="F15" s="12">
-        <v>-2.29</v>
-      </c>
-      <c r="G15" s="12">
-        <v>-1.8</v>
-      </c>
-      <c r="H15" s="12">
-        <v>-1.8</v>
-      </c>
-      <c r="K15" s="12">
-        <v>-0.93</v>
-      </c>
-      <c r="L15" s="12">
-        <v>-0.93</v>
-      </c>
-      <c r="N15" s="12">
-        <v>-1.1499999999999999</v>
-      </c>
-      <c r="O15" s="12">
-        <v>-1.1499999999999999</v>
-      </c>
-      <c r="P15" s="12">
-        <v>-3.51</v>
-      </c>
-      <c r="U15" s="12">
-        <v>-1.46</v>
-      </c>
-      <c r="V15" s="12">
-        <v>-1.46</v>
-      </c>
-      <c r="AH15" s="12">
-        <v>-2.23</v>
-      </c>
-      <c r="AI15" s="12">
-        <v>-2.23</v>
-      </c>
-      <c r="AJ15" s="12">
-        <v>-1.57</v>
-      </c>
-      <c r="AK15" s="12">
-        <v>-1.49</v>
-      </c>
-      <c r="AM15" s="12">
-        <v>-2.16</v>
-      </c>
-      <c r="AN15" s="12">
-        <v>-2.16</v>
-      </c>
-      <c r="AO15" s="12">
-        <v>-1.5</v>
-      </c>
-      <c r="AP15" s="12">
-        <v>-1.5</v>
-      </c>
-      <c r="AZ15" s="12">
-        <v>0.622</v>
-      </c>
-      <c r="BA15" s="12">
-        <v>0.622</v>
-      </c>
-      <c r="BI15" s="12">
-        <v>-1.6140000000000001</v>
-      </c>
-      <c r="BJ15" s="12">
-        <v>-1.6140000000000001</v>
-      </c>
-      <c r="BK15" s="12">
-        <v>-1.24</v>
-      </c>
-      <c r="BL15" s="12">
-        <v>-2.1800000000000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:78" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="11"/>
       <c r="D16" s="7">
         <v>1</v>
       </c>
+      <c r="E16" s="12">
+        <v>-1.76</v>
+      </c>
+      <c r="F16" s="12">
+        <v>-2.29</v>
+      </c>
       <c r="G16" s="12">
-        <v>51.31</v>
-      </c>
-      <c r="J16" s="12">
-        <v>-74.7</v>
+        <v>-1.8</v>
+      </c>
+      <c r="H16" s="12">
+        <v>-1.8</v>
+      </c>
+      <c r="K16" s="12">
+        <v>-0.93</v>
+      </c>
+      <c r="L16" s="12">
+        <v>-0.93</v>
       </c>
       <c r="N16" s="12">
-        <v>-34.04</v>
-      </c>
-      <c r="Q16" s="12">
-        <v>-39.07</v>
-      </c>
-      <c r="V16" s="12">
-        <v>62.5</v>
-      </c>
-      <c r="W16" s="12">
-        <v>61.503</v>
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="O16" s="12">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="P16" s="12">
+        <v>-3.51</v>
+      </c>
+      <c r="S16" s="12">
+        <v>-1.46</v>
+      </c>
+      <c r="T16" s="12">
+        <v>-1.46</v>
+      </c>
+      <c r="AF16" s="12">
+        <v>-2.23</v>
+      </c>
+      <c r="AG16" s="12">
+        <v>-2.23</v>
       </c>
       <c r="AH16" s="12">
-        <v>-160.27000000000001</v>
+        <v>-1.57</v>
+      </c>
+      <c r="AI16" s="12">
+        <v>-1.49</v>
+      </c>
+      <c r="AK16" s="12">
+        <v>-2.16</v>
+      </c>
+      <c r="AL16" s="12">
+        <v>-2.16</v>
       </c>
       <c r="AM16" s="12">
-        <v>56.386000000000003</v>
-      </c>
-      <c r="AO16" s="12">
-        <v>-30</v>
-      </c>
-      <c r="AR16" s="12">
-        <v>56.3</v>
-      </c>
-      <c r="AT16" s="12">
-        <v>48.87</v>
-      </c>
-      <c r="AU16" s="12">
-        <v>36.648000000000003</v>
+        <v>-1.5</v>
+      </c>
+      <c r="AN16" s="12">
+        <v>-1.5</v>
       </c>
       <c r="AX16" s="12">
-        <v>78.06</v>
-      </c>
-      <c r="BA16" s="12">
-        <v>-63.343000000000004</v>
-      </c>
-      <c r="BC16" s="12">
-        <v>45.323</v>
-      </c>
-      <c r="BG16" s="12">
-        <v>36.648000000000003</v>
+        <v>0.622</v>
+      </c>
+      <c r="AY16" s="12">
+        <v>0.622</v>
       </c>
       <c r="BH16" s="12">
-        <v>46.2</v>
+        <v>-1.6140000000000001</v>
       </c>
       <c r="BI16" s="12">
-        <v>27.463000000000001</v>
+        <v>-1.6140000000000001</v>
+      </c>
+      <c r="BJ16" s="12">
+        <v>-1.24</v>
+      </c>
+      <c r="BK16" s="12">
+        <v>-2.1800000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:62" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>66</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C17" s="11"/>
       <c r="D17" s="7">
         <v>1</v>
       </c>
-      <c r="P17" s="12">
-        <v>5.5</v>
-      </c>
-      <c r="Y17" s="12">
-        <v>2.69</v>
-      </c>
-      <c r="Z17" s="12">
-        <v>2.12</v>
-      </c>
-      <c r="AC17" s="12">
-        <v>2.69</v>
-      </c>
-      <c r="AD17" s="12">
-        <v>2.41</v>
-      </c>
-      <c r="AO17" s="12">
-        <v>3</v>
+      <c r="G17" s="12">
+        <v>51.31</v>
+      </c>
+      <c r="J17" s="12">
+        <v>-74.7</v>
+      </c>
+      <c r="L17" s="12">
+        <v>17</v>
+      </c>
+      <c r="N17" s="12">
+        <v>-34.04</v>
+      </c>
+      <c r="Q17" s="12">
+        <v>-39.07</v>
+      </c>
+      <c r="T17" s="12">
+        <v>62.5</v>
+      </c>
+      <c r="U17" s="12">
+        <v>61.503</v>
+      </c>
+      <c r="AF17" s="12">
+        <v>-160.27000000000001</v>
+      </c>
+      <c r="AK17" s="12">
+        <v>56.386000000000003</v>
+      </c>
+      <c r="AM17" s="12">
+        <v>-30</v>
       </c>
       <c r="AP17" s="12">
-        <v>3</v>
-      </c>
-      <c r="BI17" s="12">
-        <v>4.3490000000000002</v>
-      </c>
-      <c r="BJ17" s="12">
-        <v>4.3490000000000002</v>
+        <v>56.3</v>
+      </c>
+      <c r="AR17" s="12">
+        <v>48.87</v>
+      </c>
+      <c r="AS17" s="12">
+        <v>36.648000000000003</v>
+      </c>
+      <c r="AV17" s="12">
+        <v>78.06</v>
+      </c>
+      <c r="AY17" s="12">
+        <v>-63.343000000000004</v>
+      </c>
+      <c r="BA17" s="12">
+        <v>45.323</v>
+      </c>
+      <c r="BD17" s="12">
+        <v>54.735999999999997</v>
+      </c>
+      <c r="BE17" s="12">
+        <v>58.36</v>
+      </c>
+      <c r="BF17" s="12">
+        <v>50.6</v>
+      </c>
+      <c r="BG17" s="12">
+        <v>46.2</v>
+      </c>
+      <c r="BH17" s="12">
+        <v>27.463000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:62" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D18" s="7">
         <v>1</v>
       </c>
-      <c r="S18" s="12">
-        <v>1.76</v>
-      </c>
-      <c r="T18" s="12">
-        <v>1.66</v>
-      </c>
-      <c r="AU18" s="12">
-        <v>1.365</v>
-      </c>
-      <c r="AV18" s="12">
-        <v>1.365</v>
-      </c>
-      <c r="BF18" s="12">
-        <v>1.365</v>
-      </c>
-      <c r="BG18" s="12">
-        <v>1.365</v>
+      <c r="P18" s="12">
+        <v>5.5</v>
+      </c>
+      <c r="Y18" s="12">
+        <v>2.12</v>
+      </c>
+      <c r="Z18" s="12">
+        <v>2.69</v>
+      </c>
+      <c r="AA18" s="12">
+        <v>2.69</v>
+      </c>
+      <c r="AB18" s="12">
+        <v>2.41</v>
+      </c>
+      <c r="AM18" s="12">
+        <v>3</v>
+      </c>
+      <c r="AN18" s="12">
+        <v>3</v>
+      </c>
+      <c r="BH18" s="12">
+        <v>4.3490000000000002</v>
+      </c>
+      <c r="BI18" s="12">
+        <v>4.3490000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:62" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:61" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>80</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>82</v>
       </c>
       <c r="D19" s="7">
         <v>1</v>
       </c>
-      <c r="BH19" s="12">
-        <v>0.65</v>
-      </c>
-      <c r="BI19" s="12">
-        <v>1.1910000000000001</v>
-      </c>
-      <c r="BJ19" s="12">
-        <v>1.1910000000000001</v>
+      <c r="AS19" s="12">
+        <v>1.365</v>
+      </c>
+      <c r="AT19" s="12">
+        <v>1.365</v>
+      </c>
+      <c r="BE19" s="12">
+        <v>0.89100000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:62" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:61" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="D20" s="7">
         <v>1</v>
       </c>
-      <c r="M20" s="12">
-        <v>23.29</v>
+      <c r="BG20" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="BH20" s="12">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="BI20" s="12">
+        <v>1.1910000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:62" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:61" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="11"/>
+        <v>83</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="D21" s="7">
         <v>1</v>
       </c>
-      <c r="BH21" s="12">
-        <v>8.43</v>
+      <c r="M21" s="12">
+        <v>23.29</v>
       </c>
     </row>
-    <row r="22" spans="1:62" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:61" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="7">
         <v>1</v>
       </c>
-      <c r="BH22" s="12">
+      <c r="BG22" s="12">
+        <v>8.43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="BG23" s="12">
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:62" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="11" t="s">
+    <row r="24" spans="1:61" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2</v>
+      </c>
+      <c r="BF24" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="BG24" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:61" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="B25" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="X25" s="12">
+        <v>-5.5</v>
+      </c>
+      <c r="Z25" s="12">
+        <v>-5.69</v>
+      </c>
+      <c r="AB25" s="12">
+        <v>-6.92</v>
+      </c>
+      <c r="AD25" s="12">
+        <v>-6.22</v>
+      </c>
+      <c r="AQ25" s="12">
+        <v>-4.87</v>
+      </c>
+      <c r="AR25" s="12">
+        <v>-4.87</v>
+      </c>
+      <c r="BD25" s="12">
+        <v>-4.3810000000000002</v>
+      </c>
+      <c r="BE25" s="12">
+        <v>-4.016</v>
+      </c>
+      <c r="BF25" s="12">
+        <v>-5.08</v>
+      </c>
+      <c r="BG25" s="12">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="7">
         <v>2</v>
       </c>
-      <c r="BH23" s="12">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:62" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y24" s="12">
-        <v>-5.69</v>
-      </c>
-      <c r="AA24" s="12">
-        <v>-5.5</v>
-      </c>
-      <c r="AD24" s="12">
-        <v>-6.92</v>
-      </c>
-      <c r="AE24" s="12">
-        <v>-6.22</v>
-      </c>
-      <c r="AL24" s="12">
+      <c r="AJ26" s="12">
         <v>-6.8000000000000005E-2</v>
-      </c>
-      <c r="AS24" s="12">
-        <v>-4.87</v>
-      </c>
-      <c r="AT24" s="12">
-        <v>-4.87</v>
-      </c>
-      <c r="BF24" s="12">
-        <v>-1.704</v>
-      </c>
-      <c r="BG24" s="12">
-        <v>-1.704</v>
-      </c>
-      <c r="BH24" s="12">
-        <v>-5</v>
       </c>
     </row>
   </sheetData>
